--- a/src/test/resources/EN_HomePage.xlsx
+++ b/src/test/resources/EN_HomePage.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="2024-11-21_BROKENLINK" r:id="rId4" sheetId="2"/>
     <sheet name="2024-11-21_BROKENIMAGE" r:id="rId5" sheetId="3"/>
+    <sheet name="2024-11-22_BROKENLINK" r:id="rId6" sheetId="4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11513" uniqueCount="3248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11919" uniqueCount="3248">
   <si>
     <t>URL</t>
   </si>
@@ -9775,7 +9776,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -9796,6 +9797,26 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -9880,7 +9901,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9893,6 +9914,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -63670,4 +63695,1907 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D135"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="9">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="10">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B52" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B53" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B54" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B55" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B56" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B57" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B58" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B59" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B60" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B61" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B62" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B63" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B64" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B65" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B66" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B67" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B68" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B69" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B70" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B71" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B72" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B73" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B74" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B75" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B76" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B77" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B78" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B79" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B80" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B93" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B94" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B95" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B96" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B97" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B98" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B99" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B100" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B101" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B102" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B103" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B104" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B105" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B106" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B107" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B108" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B109" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B110" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B111" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B112" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B113" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B114" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B115" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B116" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B117" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B118" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B119" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B120" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B121" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B122" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B123" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B124" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B125" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B126" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B127" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B128" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B129" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B130" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B131" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B132" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B133" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B134" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B135" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/test/resources/EN_HomePage.xlsx
+++ b/src/test/resources/EN_HomePage.xlsx
@@ -114,10 +114,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
+      <selection pane="topLeft" activeCell="U19" activeCellId="0" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/EN_HomePage.xlsx
+++ b/src/test/resources/EN_HomePage.xlsx
@@ -114,10 +114,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U19" activeCellId="0" sqref="U19"/>
+      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/EN_HomePage.xlsx
+++ b/src/test/resources/EN_HomePage.xlsx
@@ -114,10 +114,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/EN_HomePage.xlsx
+++ b/src/test/resources/EN_HomePage.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4960" uniqueCount="1322">
   <si>
     <t>URL</t>
   </si>
@@ -4127,7 +4127,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1343"/>
+  <dimension ref="A1:D1653"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22935,6 +22935,4346 @@
         <v>132</v>
       </c>
     </row>
+    <row r="1344">
+      <c r="A1344" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B1344" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1344" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1344" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B1345" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1345" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1345" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B1346" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1346" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1346" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B1347" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1347" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1347" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B1348" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1348" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1348" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B1349" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1349" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1349" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B1350" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1350" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1350" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B1351" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1351" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1351" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B1352" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1352" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1352" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B1353" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1353" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1353" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B1354" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1354" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1354" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B1355" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1355" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1355" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B1356" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1356" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1356" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B1357" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1357" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1357" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B1358" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1358" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1358" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1359" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1359" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1359" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B1360" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1360" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1360" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B1361" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1361" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1361" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B1362" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1362" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1362" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B1363" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1363" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1363" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B1364" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1364" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1364" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B1365" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1365" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1365" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B1366" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1366" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1366" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B1367" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1367" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1367" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B1368" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1368" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1368" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B1369" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1369" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1369" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B1370" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1370" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1370" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B1371" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1371" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1371" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B1372" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1372" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1372" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B1373" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1373" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1373" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B1374" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1374" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1374" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B1375" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1375" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1375" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B1376" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1376" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1376" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B1377" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1377" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1377" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B1378" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1378" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1378" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B1379" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1379" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1379" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B1380" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1380" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1380" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B1381" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1381" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1381" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B1382" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1382" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1382" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B1383" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1383" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1383" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B1384" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1384" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1384" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B1385" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1385" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1385" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B1386" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1386" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1386" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B1387" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1387" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1387" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B1388" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1388" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1388" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B1389" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1389" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1389" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B1390" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1390" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1390" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B1391" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1391" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1391" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B1392" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1392" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1392" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B1393" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1393" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1393" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B1394" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1394" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1394" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B1395" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1395" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1395" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B1396" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1396" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1396" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B1397" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1397" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1397" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B1398" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1398" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1398" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B1399" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1399" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1399" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B1400" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1400" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1400" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B1401" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1401" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1401" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B1402" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1402" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1402" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B1403" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1403" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1403" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B1404" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1404" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1404" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B1405" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1405" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1405" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B1406" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1406" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1406" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B1407" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1407" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1407" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B1408" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1408" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1408" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B1409" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1409" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1409" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B1410" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1410" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1410" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B1411" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1411" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1411" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B1412" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1412" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1412" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B1413" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1413" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1413" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B1414" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1414" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1414" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B1415" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1415" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1415" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B1416" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1416" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1416" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B1417" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1417" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1417" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B1418" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1418" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1418" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B1419" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1419" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1419" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B1420" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1420" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1420" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B1421" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1421" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1421" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B1422" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1422" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1422" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B1423" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1423" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1423" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B1424" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1424" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1424" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B1425" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1425" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1425" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B1426" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1426" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1426" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1427" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1427" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1427" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1428" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1428" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1428" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1429" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1429" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1429" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1430" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1430" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1430" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1431" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1431" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1431" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B1432" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1432" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1432" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B1433" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1433" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1433" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B1434" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1434" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1434" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B1435" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1435" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1435" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B1436" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1436" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1436" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1437" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1437" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1437" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B1438" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1438" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1438" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B1439" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1439" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1439" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1440" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1440" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1440" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B1441" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1441" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1441" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B1442" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1442" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1442" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B1443" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1443" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1443" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B1444" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1444" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1444" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B1445" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1445" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1445" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B1446" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1446" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1446" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B1447" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1447" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1447" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B1448" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1448" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1448" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B1449" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1449" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1449" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B1450" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1450" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1450" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B1451" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1451" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1451" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B1452" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1452" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1452" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B1453" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1453" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1453" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B1454" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1454" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1454" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B1455" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1455" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1455" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B1456" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1456" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1456" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B1457" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1457" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1457" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B1458" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1458" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1458" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B1459" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1459" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1459" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B1460" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1460" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1460" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B1461" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1461" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1461" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B1462" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1462" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1462" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B1463" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1463" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1463" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B1464" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1464" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1464" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B1465" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1465" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1465" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B1466" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1466" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1466" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B1467" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1467" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1467" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B1468" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1468" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1468" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B1469" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1469" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1469" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B1470" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1470" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1470" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B1471" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1471" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1471" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B1472" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1472" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1472" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B1473" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1473" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1473" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B1474" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1474" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1474" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B1475" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1475" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1475" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B1476" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1476" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1476" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B1477" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1477" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1477" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B1478" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1478" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1478" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B1479" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1479" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1479" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B1480" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1480" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1480" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B1481" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1481" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1481" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B1482" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1482" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1482" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B1483" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1483" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1483" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B1484" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1484" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1484" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B1485" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1485" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1485" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B1486" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1486" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1486" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B1487" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1487" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1487" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B1488" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1488" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1488" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B1489" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1489" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1489" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B1490" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1490" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1490" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B1491" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1491" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1491" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B1492" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1492" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1492" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B1493" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1493" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1493" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B1494" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1494" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1494" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B1495" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1495" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1495" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B1496" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1496" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1496" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B1497" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1497" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1497" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B1498" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1498" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1498" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B1499" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1499" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1499" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B1500" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1500" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1500" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B1501" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1501" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1501" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B1502" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1502" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1502" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B1503" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1503" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1503" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B1504" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1504" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1504" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B1505" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1505" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1505" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B1506" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1506" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1506" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B1507" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1507" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1507" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B1508" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1508" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1508" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B1509" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1509" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1509" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B1510" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1510" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1510" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B1511" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1511" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1511" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B1512" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1512" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1512" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B1513" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1513" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1513" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B1514" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1514" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1514" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B1515" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1515" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1515" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B1516" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1516" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1516" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B1517" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1517" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1517" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B1518" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1518" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1518" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B1519" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1519" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1519" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B1520" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1520" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1520" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B1521" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1521" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1521" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B1522" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1522" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1522" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B1523" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1523" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1523" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B1524" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1524" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1524" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B1525" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1525" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1525" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B1526" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1526" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1526" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B1527" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1527" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1527" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B1528" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1528" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1528" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B1529" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1529" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1529" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B1530" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1530" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1530" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B1531" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1531" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1531" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B1532" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1532" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1532" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B1533" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1533" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1533" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B1534" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1534" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1534" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B1535" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1535" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1535" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B1536" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1536" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1536" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B1537" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1537" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1537" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B1538" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1538" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1538" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="B1539" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1539" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1539" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B1540" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1540" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1540" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B1541" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1541" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1541" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B1542" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1542" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1542" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B1543" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1543" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1543" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B1544" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1544" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1544" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B1545" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1545" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1545" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B1546" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1546" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1546" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B1547" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1547" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1547" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B1548" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1548" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1548" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B1549" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1549" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1549" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B1550" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1550" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1550" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B1551" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1551" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1551" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B1552" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1552" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1552" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B1553" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1553" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1553" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B1554" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1554" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1554" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B1555" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1555" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1555" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B1556" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1556" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1556" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B1557" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1557" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1557" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B1558" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1558" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1558" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B1559" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1559" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1559" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B1560" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1560" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1560" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B1561" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1561" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1561" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B1562" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1562" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1562" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B1563" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1563" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1563" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B1564" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1564" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1564" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="B1565" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1565" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1565" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1566" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1566" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1566" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="B1567" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1567" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1567" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1568" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1568" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1568" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B1569" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1569" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1569" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B1570" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1570" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1570" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="B1571" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1571" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1571" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B1572" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1572" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1572" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B1573" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1573" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1573" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B1574" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1574" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1574" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B1575" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1575" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1575" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B1576" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1576" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1576" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="B1577" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1577" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1577" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B1578" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1578" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1578" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B1579" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1579" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1579" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B1580" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1580" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1580" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="B1581" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1581" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1581" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B1582" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1582" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1582" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B1583" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1583" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1583" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B1584" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1584" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1584" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B1585" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1585" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1585" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B1586" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1586" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1586" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="B1587" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1587" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1587" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B1588" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1588" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1588" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="B1589" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1589" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1589" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B1590" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1590" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1590" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B1591" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1591" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1591" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="B1592" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1592" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1592" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B1593" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1593" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1593" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="B1594" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1594" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1594" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="B1595" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1595" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1595" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B1596" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1596" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1596" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B1597" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1597" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1597" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B1598" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1598" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1598" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="B1599" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1599" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1599" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B1600" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1600" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1600" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B1601" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1601" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1601" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B1602" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1602" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1602" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="B1603" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1603" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1603" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B1604" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1604" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1604" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="B1605" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1605" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1605" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B1606" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1606" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1606" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B1607" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1607" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1607" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B1608" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1608" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1608" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="B1609" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1609" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1609" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B1610" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1610" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1610" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="B1611" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1611" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1611" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B1612" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1612" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1612" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B1613" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1613" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1613" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B1614" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1614" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1614" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B1615" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1615" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1615" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B1616" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1616" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1616" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B1617" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1617" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1617" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B1618" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1618" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1618" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B1619" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1619" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1619" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B1620" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1620" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1620" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="B1621" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1621" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1621" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B1622" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1622" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1622" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B1623" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1623" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1623" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B1624" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1624" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1624" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B1625" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1625" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1625" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B1626" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1626" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1626" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B1627" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1627" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1627" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B1628" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1628" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1628" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="B1629" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1629" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1629" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B1630" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1630" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1630" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B1631" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1631" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1631" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B1632" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1632" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1632" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B1633" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1633" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1633" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B1634" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1634" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1634" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B1635" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1635" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1635" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B1636" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1636" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1636" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B1637" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1637" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1637" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B1638" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1638" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1638" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B1639" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1639" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1639" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B1640" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1640" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1640" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B1641" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1641" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1641" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B1642" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1642" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1642" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B1643" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1643" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1643" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B1644" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1644" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1644" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B1645" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1645" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1645" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B1646" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1646" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1646" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B1647" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1647" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1647" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B1648" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1648" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1648" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B1649" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1649" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1649" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="B1650" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1650" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1650" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="B1651" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1651" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1651" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B1652" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1652" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1652" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="B1653" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C1653" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D1653" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/resources/EN_HomePage.xlsx
+++ b/src/test/resources/EN_HomePage.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8791" uniqueCount="2231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9865" uniqueCount="2266">
   <si>
     <t>URL</t>
   </si>
@@ -6714,6 +6714,111 @@
   </si>
   <si>
     <t>https://www.novalnet.de/online-magento-benutzerhandbuch-produktpflege-artikelinformationen-recurring-profile-rechnungstellung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/8-ways-reliable-payment-gateway-providers-improve-customer-experience/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/8-ways-reliable-payment-gateway-providers-improve-customer-experience/#content</t>
+  </si>
+  <si>
+    <t>https://financesonline.com/top-5-accounting-software-small-business-2017/</t>
+  </si>
+  <si>
+    <t>https://www.marketsandmarkets.com/Market-Reports/payment-processing-solutions-market-751866.html</t>
+  </si>
+  <si>
+    <t>https://www.mckinsey.com/capabilities/growth-marketing-and-sales/our-insights/the-value-of-getting-personalization-right-or-wrong-is-multiplying</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/3-best-payment-methods-for-subscription-payments-in-2023/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/3-best-payment-methods-for-subscription-payments-in-2023/#content</t>
+  </si>
+  <si>
+    <t>https://rechargepayments.com/new-to-subscriptions/</t>
+  </si>
+  <si>
+    <t>https://www.ukfinance.org.uk/system/files/2022-08/UKF%20Payment%20Markets%20Summary%202022.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/why-you-should-use-ai-for-fraud-detection/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/why-you-should-use-ai-for-fraud-detection/#content</t>
+  </si>
+  <si>
+    <t>https://portal.ejtn.eu/Documents/THEMIS%202016/Semi%20A/Bulgaria_TH_2016_01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.techtarget.com/searchsecurity/definition/fraud-detection</t>
+  </si>
+  <si>
+    <t>https://www.enisa.europa.eu/topics/csirts-in-europe/glossary/ransomware</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/3-reasons-why-omnichannel-payments-benefit-your-business/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/3-reasons-why-omnichannel-payments-benefit-your-business/#content</t>
+  </si>
+  <si>
+    <t>https://www.accenture.com/content/dam/accenture/final/accenture-com/document-2/Accenture-Pulse-of-Change-2024-Index-Executive-Summary.pdf</t>
+  </si>
+  <si>
+    <t>https://www.prweb.com/releases/56_of_consumers_are_likely_to_choose_a_retailer_who_offers_a_shared_cart_across_channels_according_to_new_brp_report/prweb16162404.htm</t>
+  </si>
+  <si>
+    <t>https://hbr.org/2017/01/a-study-of-46000-shoppers-shows-that-omnichannel-retailing-works</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/what-are-bacs-payments-and-how-to-use-them/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/what-are-bacs-payments-and-how-to-use-them/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/3-d-secure-2-why-do-merchants-need-it/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/3-d-secure-2-why-do-merchants-need-it/#content</t>
+  </si>
+  <si>
+    <t>https://internetretailing.net/european-ecommerce-revenues-jump-30-to-us465bn-in-2021-23016/</t>
+  </si>
+  <si>
+    <t>https://www.juniperresearch.com/press/online-payment-fraud-losses-to-exceed-206-billion/#:~:text=IoT%20%26%20Emerging%20Technology-,Online%20Payment%20Fraud%20Losses%20to%20Exceed%20%24206%20Billion%20Over%20the,period%20between%202021%20and%202025.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Payment_Services_Directive</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Strong_customer_authentication</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/6-frequently-asked-questions-about-digital-payments/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/6-frequently-asked-questions-about-digital-payments/#content</t>
+  </si>
+  <si>
+    <t>https://americasmi.com/wp-content/uploads/2020/05/ami_mastercard_digital_banking_in_latin_america_best_practices_english_final.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/open-finance-what-it-means-for-your-business/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/blog/open-finance-what-it-means-for-your-business/#content</t>
+  </si>
+  <si>
+    <t>https://www2.deloitte.com/global/en/pages/financial-services/articles/open-banking-around-the-world.html</t>
+  </si>
+  <si>
+    <t>https://www.fca.org.uk/publications/feedback-statements/fs21-7-open-finance-feedback-statement</t>
+  </si>
+  <si>
+    <t>https://kpmg.com/lu/en/blogs/home/posts/2024/04/embracing-the-future-with-open-finance-and-fida.html</t>
   </si>
 </sst>
 </file>
@@ -6854,7 +6959,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2930"/>
+  <dimension ref="A1:D3288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -47880,6 +47985,5018 @@
         <v>115</v>
       </c>
     </row>
+    <row r="2931">
+      <c r="A2931" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B2931" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2931" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2931" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" t="s" s="0">
+        <v>1466</v>
+      </c>
+      <c r="B2932" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2932" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2932" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="s" s="0">
+        <v>1467</v>
+      </c>
+      <c r="B2933" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2933" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2933" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B2934" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2934" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2934" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" t="s" s="0">
+        <v>1472</v>
+      </c>
+      <c r="B2935" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2935" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2935" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" t="s" s="0">
+        <v>1474</v>
+      </c>
+      <c r="B2936" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2936" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2936" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="B2937" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2937" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2937" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B2938" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2938" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2938" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" t="s" s="0">
+        <v>1482</v>
+      </c>
+      <c r="B2939" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2939" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2939" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" t="s" s="0">
+        <v>1483</v>
+      </c>
+      <c r="B2940" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2940" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2940" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B2941" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2941" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2941" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" t="s" s="0">
+        <v>1488</v>
+      </c>
+      <c r="B2942" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2942" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2942" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" t="s" s="0">
+        <v>1490</v>
+      </c>
+      <c r="B2943" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2943" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2943" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" t="s" s="0">
+        <v>1492</v>
+      </c>
+      <c r="B2944" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2944" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2944" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B2945" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2945" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2945" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" t="s" s="0">
+        <v>1498</v>
+      </c>
+      <c r="B2946" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2946" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2946" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" t="s" s="0">
+        <v>1500</v>
+      </c>
+      <c r="B2947" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2947" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2947" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="s" s="0">
+        <v>1502</v>
+      </c>
+      <c r="B2948" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2948" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2948" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B2949" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2949" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2949" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" t="s" s="0">
+        <v>1505</v>
+      </c>
+      <c r="B2950" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2950" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2950" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" t="s" s="0">
+        <v>1508</v>
+      </c>
+      <c r="B2951" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2951" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2951" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" t="s" s="0">
+        <v>1510</v>
+      </c>
+      <c r="B2952" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2952" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2952" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B2953" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2953" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2953" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" t="s" s="0">
+        <v>1515</v>
+      </c>
+      <c r="B2954" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2954" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2954" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" t="s" s="0">
+        <v>1517</v>
+      </c>
+      <c r="B2955" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2955" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2955" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B2956" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2956" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2956" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" t="s" s="0">
+        <v>1521</v>
+      </c>
+      <c r="B2957" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2957" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2957" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" t="s" s="0">
+        <v>1522</v>
+      </c>
+      <c r="B2958" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2958" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2958" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B2959" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="C2959" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2959" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" t="s" s="0">
+        <v>1526</v>
+      </c>
+      <c r="B2960" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2960" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2960" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" t="s" s="0">
+        <v>1527</v>
+      </c>
+      <c r="B2961" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2961" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2961" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" t="s" s="0">
+        <v>1529</v>
+      </c>
+      <c r="B2962" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2962" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2962" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B2963" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2963" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2963" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" t="s" s="0">
+        <v>1534</v>
+      </c>
+      <c r="B2964" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2964" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2964" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" t="s" s="0">
+        <v>1536</v>
+      </c>
+      <c r="B2965" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2965" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2965" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" t="s" s="0">
+        <v>1539</v>
+      </c>
+      <c r="B2966" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2966" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2966" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" t="s" s="0">
+        <v>1540</v>
+      </c>
+      <c r="B2967" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2967" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2967" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" t="s" s="0">
+        <v>1543</v>
+      </c>
+      <c r="B2968" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2968" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2968" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B2969" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2969" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2969" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2970">
+      <c r="A2970" t="s" s="0">
+        <v>1547</v>
+      </c>
+      <c r="B2970" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2970" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2970" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" t="s" s="0">
+        <v>1548</v>
+      </c>
+      <c r="B2971" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2971" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2971" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" t="s" s="0">
+        <v>1549</v>
+      </c>
+      <c r="B2972" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2972" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2972" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" t="s" s="0">
+        <v>1554</v>
+      </c>
+      <c r="B2973" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2973" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2973" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" t="s" s="0">
+        <v>1555</v>
+      </c>
+      <c r="B2974" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2974" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2974" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" t="s" s="0">
+        <v>1557</v>
+      </c>
+      <c r="B2975" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2975" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2975" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" t="s" s="0">
+        <v>1559</v>
+      </c>
+      <c r="B2976" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2976" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2976" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" t="s" s="0">
+        <v>1563</v>
+      </c>
+      <c r="B2977" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2977" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2977" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2978">
+      <c r="A2978" t="s" s="0">
+        <v>1566</v>
+      </c>
+      <c r="B2978" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2978" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2978" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" t="s" s="0">
+        <v>1568</v>
+      </c>
+      <c r="B2979" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2979" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2979" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B2980" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2980" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2980" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" t="s" s="0">
+        <v>1575</v>
+      </c>
+      <c r="B2981" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2981" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2981" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" t="s" s="0">
+        <v>1577</v>
+      </c>
+      <c r="B2982" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2982" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2982" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" t="s" s="0">
+        <v>1580</v>
+      </c>
+      <c r="B2983" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2983" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2983" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="B2984" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2984" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2984" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B2985" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2985" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2985" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" t="s" s="0">
+        <v>1582</v>
+      </c>
+      <c r="B2986" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2986" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2986" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2987">
+      <c r="A2987" t="s" s="0">
+        <v>1583</v>
+      </c>
+      <c r="B2987" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2987" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2987" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" t="s" s="0">
+        <v>1584</v>
+      </c>
+      <c r="B2988" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2988" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2988" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B2989" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2989" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2989" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" t="s" s="0">
+        <v>1589</v>
+      </c>
+      <c r="B2990" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2990" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2990" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" t="s" s="0">
+        <v>1590</v>
+      </c>
+      <c r="B2991" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2991" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2991" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" t="s" s="0">
+        <v>1592</v>
+      </c>
+      <c r="B2992" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2992" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2992" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B2993" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2993" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2993" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="A2994" t="s" s="0">
+        <v>1597</v>
+      </c>
+      <c r="B2994" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2994" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2994" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="A2995" t="s" s="0">
+        <v>1598</v>
+      </c>
+      <c r="B2995" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2995" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2995" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" t="s" s="0">
+        <v>1600</v>
+      </c>
+      <c r="B2996" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2996" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2996" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" t="s" s="0">
+        <v>1602</v>
+      </c>
+      <c r="B2997" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2997" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2997" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" t="s" s="0">
+        <v>1603</v>
+      </c>
+      <c r="B2998" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2998" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2998" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B2999" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C2999" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D2999" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3000">
+      <c r="A3000" t="s" s="0">
+        <v>1607</v>
+      </c>
+      <c r="B3000" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3000" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3000" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" t="s" s="0">
+        <v>1609</v>
+      </c>
+      <c r="B3001" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3001" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3001" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3002" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3002" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3002" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" t="s" s="0">
+        <v>1616</v>
+      </c>
+      <c r="B3003" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3003" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3003" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" t="s" s="0">
+        <v>1617</v>
+      </c>
+      <c r="B3004" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3004" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3004" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="A3005" t="s" s="0">
+        <v>1620</v>
+      </c>
+      <c r="B3005" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3005" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3005" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3006" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3006" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3006" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" t="s" s="0">
+        <v>1625</v>
+      </c>
+      <c r="B3007" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3007" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3007" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" t="s" s="0">
+        <v>1626</v>
+      </c>
+      <c r="B3008" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3008" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3008" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" t="s" s="0">
+        <v>1627</v>
+      </c>
+      <c r="B3009" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C3009" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="D3009" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" t="s" s="0">
+        <v>1627</v>
+      </c>
+      <c r="B3010" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C3010" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="D3010" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3011" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3011" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3011" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" t="s" s="0">
+        <v>1633</v>
+      </c>
+      <c r="B3012" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3012" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3012" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" t="s" s="0">
+        <v>1635</v>
+      </c>
+      <c r="B3013" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3013" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3013" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" t="s" s="0">
+        <v>1637</v>
+      </c>
+      <c r="B3014" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3014" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3014" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" t="s" s="0">
+        <v>1639</v>
+      </c>
+      <c r="B3015" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3015" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3015" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" t="s" s="0">
+        <v>1640</v>
+      </c>
+      <c r="B3016" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3016" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3016" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3017" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3017" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3017" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" t="s" s="0">
+        <v>1645</v>
+      </c>
+      <c r="B3018" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3018" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3018" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" t="s" s="0">
+        <v>1646</v>
+      </c>
+      <c r="B3019" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3019" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3019" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" t="s" s="0">
+        <v>1679</v>
+      </c>
+      <c r="B3020" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C3020" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="D3020" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3021" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="C3021" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3021" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3022">
+      <c r="A3022" t="s" s="0">
+        <v>1682</v>
+      </c>
+      <c r="B3022" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3022" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3022" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" t="s" s="0">
+        <v>1685</v>
+      </c>
+      <c r="B3023" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3023" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3023" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3024" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="C3024" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3024" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" t="s" s="0">
+        <v>1688</v>
+      </c>
+      <c r="B3025" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3025" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3025" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3026">
+      <c r="A3026" t="s" s="0">
+        <v>1689</v>
+      </c>
+      <c r="B3026" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3026" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3026" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3027">
+      <c r="A3027" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3027" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3027" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3027" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3028">
+      <c r="A3028" t="s" s="0">
+        <v>1695</v>
+      </c>
+      <c r="B3028" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3028" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3028" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3029">
+      <c r="A3029" t="s" s="0">
+        <v>1697</v>
+      </c>
+      <c r="B3029" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3029" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3029" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3030">
+      <c r="A3030" t="s" s="0">
+        <v>1703</v>
+      </c>
+      <c r="B3030" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3030" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3030" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3031">
+      <c r="A3031" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3031" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3031" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3031" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3032">
+      <c r="A3032" t="s" s="0">
+        <v>1707</v>
+      </c>
+      <c r="B3032" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3032" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3032" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3033">
+      <c r="A3033" t="s" s="0">
+        <v>1708</v>
+      </c>
+      <c r="B3033" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3033" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3033" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3034">
+      <c r="A3034" t="s" s="0">
+        <v>1711</v>
+      </c>
+      <c r="B3034" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3034" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3034" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3035">
+      <c r="A3035" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3035" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3035" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3035" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" t="s" s="0">
+        <v>1717</v>
+      </c>
+      <c r="B3036" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3036" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3036" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" t="s" s="0">
+        <v>1719</v>
+      </c>
+      <c r="B3037" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3037" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3037" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" t="s" s="0">
+        <v>1722</v>
+      </c>
+      <c r="B3038" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3038" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3038" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" t="s" s="0">
+        <v>1723</v>
+      </c>
+      <c r="B3039" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3039" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3039" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3040" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="C3040" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3040" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" t="s" s="0">
+        <v>1728</v>
+      </c>
+      <c r="B3041" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3041" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3041" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3042">
+      <c r="A3042" t="s" s="0">
+        <v>1729</v>
+      </c>
+      <c r="B3042" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3042" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3042" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3043">
+      <c r="A3043" t="s" s="0">
+        <v>1732</v>
+      </c>
+      <c r="B3043" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3043" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3043" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3044">
+      <c r="A3044" t="s" s="0">
+        <v>1733</v>
+      </c>
+      <c r="B3044" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3044" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3044" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3045">
+      <c r="A3045" t="s" s="0">
+        <v>1734</v>
+      </c>
+      <c r="B3045" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3045" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3045" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3046">
+      <c r="A3046" t="s" s="0">
+        <v>1737</v>
+      </c>
+      <c r="B3046" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3046" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3046" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3047">
+      <c r="A3047" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3047" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3047" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3047" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3048">
+      <c r="A3048" t="s" s="0">
+        <v>1739</v>
+      </c>
+      <c r="B3048" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3048" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3048" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3049">
+      <c r="A3049" t="s" s="0">
+        <v>1742</v>
+      </c>
+      <c r="B3049" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3049" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3049" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3050">
+      <c r="A3050" t="s" s="0">
+        <v>1743</v>
+      </c>
+      <c r="B3050" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3050" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3050" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3051">
+      <c r="A3051" t="s" s="0">
+        <v>1744</v>
+      </c>
+      <c r="B3051" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3051" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3051" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3052">
+      <c r="A3052" t="s" s="0">
+        <v>1747</v>
+      </c>
+      <c r="B3052" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3052" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3052" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3053">
+      <c r="A3053" t="s" s="0">
+        <v>1748</v>
+      </c>
+      <c r="B3053" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3053" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="D3053" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3054">
+      <c r="A3054" t="s" s="0">
+        <v>1749</v>
+      </c>
+      <c r="B3054" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3054" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3054" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3055">
+      <c r="A3055" t="s" s="0">
+        <v>1750</v>
+      </c>
+      <c r="B3055" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3055" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3055" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3056">
+      <c r="A3056" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3056" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3056" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3056" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3057">
+      <c r="A3057" t="s" s="0">
+        <v>1753</v>
+      </c>
+      <c r="B3057" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3057" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3057" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3058">
+      <c r="A3058" t="s" s="0">
+        <v>1756</v>
+      </c>
+      <c r="B3058" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3058" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3058" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3059">
+      <c r="A3059" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="B3059" t="n" s="0">
+        <v>202.0</v>
+      </c>
+      <c r="C3059" t="s" s="0">
+        <v>1758</v>
+      </c>
+      <c r="D3059" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3060">
+      <c r="A3060" t="s" s="0">
+        <v>1759</v>
+      </c>
+      <c r="B3060" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3060" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3060" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3061">
+      <c r="A3061" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3061" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3061" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3061" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3062">
+      <c r="A3062" t="s" s="0">
+        <v>1762</v>
+      </c>
+      <c r="B3062" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3062" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3062" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3063">
+      <c r="A3063" t="s" s="0">
+        <v>1763</v>
+      </c>
+      <c r="B3063" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3063" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3063" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3064">
+      <c r="A3064" t="s" s="0">
+        <v>1058</v>
+      </c>
+      <c r="B3064" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="C3064" t="s" s="0">
+        <v>1059</v>
+      </c>
+      <c r="D3064" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3065">
+      <c r="A3065" t="s" s="0">
+        <v>1766</v>
+      </c>
+      <c r="B3065" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3065" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3065" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3066">
+      <c r="A3066" t="s" s="0">
+        <v>1767</v>
+      </c>
+      <c r="B3066" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3066" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3066" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3067">
+      <c r="A3067" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3067" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3067" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3067" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3068">
+      <c r="A3068" t="s" s="0">
+        <v>1770</v>
+      </c>
+      <c r="B3068" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3068" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3068" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3069">
+      <c r="A3069" t="s" s="0">
+        <v>1771</v>
+      </c>
+      <c r="B3069" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3069" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3069" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3070">
+      <c r="A3070" t="s" s="0">
+        <v>1774</v>
+      </c>
+      <c r="B3070" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3070" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3070" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3071">
+      <c r="A3071" t="s" s="0">
+        <v>1777</v>
+      </c>
+      <c r="B3071" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3071" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3071" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3072">
+      <c r="A3072" t="s" s="0">
+        <v>1778</v>
+      </c>
+      <c r="B3072" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3072" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3072" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3073">
+      <c r="A3073" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3073" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3073" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3073" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3074">
+      <c r="A3074" t="s" s="0">
+        <v>1782</v>
+      </c>
+      <c r="B3074" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3074" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3074" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3075">
+      <c r="A3075" t="s" s="0">
+        <v>1783</v>
+      </c>
+      <c r="B3075" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3075" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3075" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3076">
+      <c r="A3076" t="s" s="0">
+        <v>1786</v>
+      </c>
+      <c r="B3076" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3076" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3076" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3077">
+      <c r="A3077" t="s" s="0">
+        <v>1788</v>
+      </c>
+      <c r="B3077" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3077" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3077" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3078" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3078" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3078" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" t="s" s="0">
+        <v>1791</v>
+      </c>
+      <c r="B3079" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3079" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3079" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3080">
+      <c r="A3080" t="s" s="0">
+        <v>1794</v>
+      </c>
+      <c r="B3080" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3080" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3080" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" t="s" s="0">
+        <v>1795</v>
+      </c>
+      <c r="B3081" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3081" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3081" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3082">
+      <c r="A3082" t="s" s="0">
+        <v>1796</v>
+      </c>
+      <c r="B3082" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3082" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3082" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3083">
+      <c r="A3083" t="s" s="0">
+        <v>1799</v>
+      </c>
+      <c r="B3083" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3083" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3083" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3084">
+      <c r="A3084" t="s" s="0">
+        <v>1800</v>
+      </c>
+      <c r="B3084" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3084" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3084" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3085">
+      <c r="A3085" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3085" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3085" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3085" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" t="s" s="0">
+        <v>1803</v>
+      </c>
+      <c r="B3086" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3086" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3086" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" t="s" s="0">
+        <v>1805</v>
+      </c>
+      <c r="B3087" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3087" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3087" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3088">
+      <c r="A3088" t="s" s="0">
+        <v>1808</v>
+      </c>
+      <c r="B3088" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3088" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3088" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3089">
+      <c r="A3089" t="s" s="0">
+        <v>1809</v>
+      </c>
+      <c r="B3089" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3089" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3089" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3090">
+      <c r="A3090" t="s" s="0">
+        <v>1811</v>
+      </c>
+      <c r="B3090" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3090" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3090" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3091">
+      <c r="A3091" t="s" s="0">
+        <v>1832</v>
+      </c>
+      <c r="B3091" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3091" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3091" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3092">
+      <c r="A3092" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3092" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3092" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3092" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3093">
+      <c r="A3093" t="s" s="0">
+        <v>1835</v>
+      </c>
+      <c r="B3093" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3093" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3093" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3094">
+      <c r="A3094" t="s" s="0">
+        <v>1836</v>
+      </c>
+      <c r="B3094" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3094" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3094" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3095">
+      <c r="A3095" t="s" s="0">
+        <v>1841</v>
+      </c>
+      <c r="B3095" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3095" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3095" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3096">
+      <c r="A3096" t="s" s="0">
+        <v>1842</v>
+      </c>
+      <c r="B3096" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3096" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3096" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3097">
+      <c r="A3097" t="s" s="0">
+        <v>1845</v>
+      </c>
+      <c r="B3097" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3097" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3097" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3098">
+      <c r="A3098" t="s" s="0">
+        <v>1846</v>
+      </c>
+      <c r="B3098" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3098" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3098" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3099">
+      <c r="A3099" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3099" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3099" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3099" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3100">
+      <c r="A3100" t="s" s="0">
+        <v>1849</v>
+      </c>
+      <c r="B3100" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3100" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3100" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3101">
+      <c r="A3101" t="s" s="0">
+        <v>1850</v>
+      </c>
+      <c r="B3101" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3101" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3101" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3102">
+      <c r="A3102" t="s" s="0">
+        <v>1851</v>
+      </c>
+      <c r="B3102" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3102" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3102" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3103">
+      <c r="A3103" t="s" s="0">
+        <v>1852</v>
+      </c>
+      <c r="B3103" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C3103" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="D3103" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3104">
+      <c r="A3104" t="s" s="0">
+        <v>1853</v>
+      </c>
+      <c r="B3104" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3104" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3104" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3105">
+      <c r="A3105" t="s" s="0">
+        <v>1854</v>
+      </c>
+      <c r="B3105" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3105" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3105" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3106">
+      <c r="A3106" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3106" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3106" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3106" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3107">
+      <c r="A3107" t="s" s="0">
+        <v>1855</v>
+      </c>
+      <c r="B3107" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3107" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3107" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3108">
+      <c r="A3108" t="s" s="0">
+        <v>1856</v>
+      </c>
+      <c r="B3108" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3108" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3108" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3109">
+      <c r="A3109" t="s" s="0">
+        <v>1857</v>
+      </c>
+      <c r="B3109" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3109" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3109" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3110">
+      <c r="A3110" t="s" s="0">
+        <v>1858</v>
+      </c>
+      <c r="B3110" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3110" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3110" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3111">
+      <c r="A3111" t="s" s="0">
+        <v>1859</v>
+      </c>
+      <c r="B3111" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3111" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3111" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3112">
+      <c r="A3112" t="s" s="0">
+        <v>1860</v>
+      </c>
+      <c r="B3112" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3112" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3112" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3113">
+      <c r="A3113" t="s" s="0">
+        <v>1861</v>
+      </c>
+      <c r="B3113" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3113" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3113" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3114">
+      <c r="A3114" t="s" s="0">
+        <v>1862</v>
+      </c>
+      <c r="B3114" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C3114" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="D3114" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3115">
+      <c r="A3115" t="s" s="0">
+        <v>1863</v>
+      </c>
+      <c r="B3115" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3115" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3115" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3116">
+      <c r="A3116" t="s" s="0">
+        <v>1864</v>
+      </c>
+      <c r="B3116" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3116" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3116" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3117">
+      <c r="A3117" t="s" s="0">
+        <v>1865</v>
+      </c>
+      <c r="B3117" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3117" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3117" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3118">
+      <c r="A3118" t="s" s="0">
+        <v>1866</v>
+      </c>
+      <c r="B3118" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3118" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3118" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3119">
+      <c r="A3119" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3119" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3119" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3119" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3120">
+      <c r="A3120" t="s" s="0">
+        <v>1867</v>
+      </c>
+      <c r="B3120" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3120" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3120" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3121">
+      <c r="A3121" t="s" s="0">
+        <v>1868</v>
+      </c>
+      <c r="B3121" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3121" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3121" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3122">
+      <c r="A3122" t="s" s="0">
+        <v>1869</v>
+      </c>
+      <c r="B3122" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3122" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3122" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3123">
+      <c r="A3123" t="s" s="0">
+        <v>1870</v>
+      </c>
+      <c r="B3123" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3123" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3123" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3124">
+      <c r="A3124" t="s" s="0">
+        <v>1871</v>
+      </c>
+      <c r="B3124" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3124" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3124" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3125">
+      <c r="A3125" t="s" s="0">
+        <v>1872</v>
+      </c>
+      <c r="B3125" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3125" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3125" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3126">
+      <c r="A3126" t="s" s="0">
+        <v>1873</v>
+      </c>
+      <c r="B3126" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3126" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3126" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3127">
+      <c r="A3127" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3127" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3127" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3127" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3128">
+      <c r="A3128" t="s" s="0">
+        <v>1877</v>
+      </c>
+      <c r="B3128" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3128" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3128" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3129">
+      <c r="A3129" t="s" s="0">
+        <v>1878</v>
+      </c>
+      <c r="B3129" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3129" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3129" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3130">
+      <c r="A3130" t="s" s="0">
+        <v>1880</v>
+      </c>
+      <c r="B3130" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3130" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3130" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3131">
+      <c r="A3131" t="s" s="0">
+        <v>1881</v>
+      </c>
+      <c r="B3131" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3131" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3131" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3132">
+      <c r="A3132" t="s" s="0">
+        <v>1882</v>
+      </c>
+      <c r="B3132" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3132" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3132" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3133">
+      <c r="A3133" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3133" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3133" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3133" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3134">
+      <c r="A3134" t="s" s="0">
+        <v>1887</v>
+      </c>
+      <c r="B3134" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3134" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3134" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3135">
+      <c r="A3135" t="s" s="0">
+        <v>1888</v>
+      </c>
+      <c r="B3135" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3135" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3135" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3136">
+      <c r="A3136" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3136" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3136" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3136" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3137">
+      <c r="A3137" t="s" s="0">
+        <v>1892</v>
+      </c>
+      <c r="B3137" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3137" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3137" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3138">
+      <c r="A3138" t="s" s="0">
+        <v>1893</v>
+      </c>
+      <c r="B3138" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3138" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3138" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3139">
+      <c r="A3139" t="s" s="0">
+        <v>1896</v>
+      </c>
+      <c r="B3139" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3139" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3139" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3140">
+      <c r="A3140" t="s" s="0">
+        <v>1897</v>
+      </c>
+      <c r="B3140" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3140" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3140" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3141">
+      <c r="A3141" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3141" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3141" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3141" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3142">
+      <c r="A3142" t="s" s="0">
+        <v>1900</v>
+      </c>
+      <c r="B3142" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3142" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3142" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3143">
+      <c r="A3143" t="s" s="0">
+        <v>1901</v>
+      </c>
+      <c r="B3143" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3143" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3143" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3144">
+      <c r="A3144" t="s" s="0">
+        <v>1905</v>
+      </c>
+      <c r="B3144" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3144" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3144" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3145">
+      <c r="A3145" t="s" s="0">
+        <v>1907</v>
+      </c>
+      <c r="B3145" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3145" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3145" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3146">
+      <c r="A3146" t="s" s="0">
+        <v>1908</v>
+      </c>
+      <c r="B3146" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3146" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3146" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3147">
+      <c r="A3147" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3147" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3147" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3147" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3148">
+      <c r="A3148" t="s" s="0">
+        <v>1914</v>
+      </c>
+      <c r="B3148" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3148" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3148" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3149">
+      <c r="A3149" t="s" s="0">
+        <v>1915</v>
+      </c>
+      <c r="B3149" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3149" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3149" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3150">
+      <c r="A3150" t="s" s="0">
+        <v>1916</v>
+      </c>
+      <c r="B3150" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3150" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3150" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3151">
+      <c r="A3151" t="s" s="0">
+        <v>1918</v>
+      </c>
+      <c r="B3151" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3151" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3151" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3152">
+      <c r="A3152" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3152" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3152" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3152" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="A3153" t="s" s="0">
+        <v>1921</v>
+      </c>
+      <c r="B3153" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3153" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3153" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3154">
+      <c r="A3154" t="s" s="0">
+        <v>1924</v>
+      </c>
+      <c r="B3154" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3154" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3154" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3155">
+      <c r="A3155" t="s" s="0">
+        <v>1925</v>
+      </c>
+      <c r="B3155" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3155" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3155" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="A3156" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3156" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3156" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3156" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3157">
+      <c r="A3157" t="s" s="0">
+        <v>1929</v>
+      </c>
+      <c r="B3157" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3157" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3157" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="A3158" t="s" s="0">
+        <v>1930</v>
+      </c>
+      <c r="B3158" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3158" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3158" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="A3159" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3159" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3159" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3159" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="A3160" t="s" s="0">
+        <v>1935</v>
+      </c>
+      <c r="B3160" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3160" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3160" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="A3161" t="s" s="0">
+        <v>1936</v>
+      </c>
+      <c r="B3161" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3161" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3161" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3162">
+      <c r="A3162" t="s" s="0">
+        <v>1938</v>
+      </c>
+      <c r="B3162" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3162" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3162" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="A3163" t="s" s="0">
+        <v>1939</v>
+      </c>
+      <c r="B3163" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3163" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3163" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3164">
+      <c r="A3164" t="s" s="0">
+        <v>1941</v>
+      </c>
+      <c r="B3164" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3164" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3164" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3165">
+      <c r="A3165" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3165" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3165" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3165" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3166">
+      <c r="A3166" t="s" s="0">
+        <v>1944</v>
+      </c>
+      <c r="B3166" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3166" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3166" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3167">
+      <c r="A3167" t="s" s="0">
+        <v>1945</v>
+      </c>
+      <c r="B3167" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3167" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3167" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3168">
+      <c r="A3168" t="s" s="0">
+        <v>1947</v>
+      </c>
+      <c r="B3168" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C3168" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="D3168" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3169">
+      <c r="A3169" t="s" s="0">
+        <v>1949</v>
+      </c>
+      <c r="B3169" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C3169" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="D3169" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3170">
+      <c r="A3170" t="s" s="0">
+        <v>1951</v>
+      </c>
+      <c r="B3170" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3170" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3170" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3171">
+      <c r="A3171" t="s" s="0">
+        <v>1954</v>
+      </c>
+      <c r="B3171" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C3171" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="D3171" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3172">
+      <c r="A3172" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3172" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3172" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3172" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" t="s" s="0">
+        <v>1959</v>
+      </c>
+      <c r="B3173" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3173" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3173" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" t="s" s="0">
+        <v>1962</v>
+      </c>
+      <c r="B3174" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3174" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3174" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="A3175" t="s" s="0">
+        <v>1965</v>
+      </c>
+      <c r="B3175" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3175" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3175" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="A3176" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3176" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="C3176" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3176" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="A3177" t="s" s="0">
+        <v>1969</v>
+      </c>
+      <c r="B3177" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3177" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3177" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="A3178" t="s" s="0">
+        <v>1970</v>
+      </c>
+      <c r="B3178" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3178" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3178" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="A3179" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3179" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3179" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3179" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="A3180" t="s" s="0">
+        <v>1974</v>
+      </c>
+      <c r="B3180" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3180" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3180" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="A3181" t="s" s="0">
+        <v>1975</v>
+      </c>
+      <c r="B3181" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3181" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3181" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" t="s" s="0">
+        <v>1976</v>
+      </c>
+      <c r="B3182" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3182" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3182" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" t="s" s="0">
+        <v>1977</v>
+      </c>
+      <c r="B3183" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3183" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3183" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" t="s" s="0">
+        <v>1978</v>
+      </c>
+      <c r="B3184" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3184" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3184" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" t="s" s="0">
+        <v>1979</v>
+      </c>
+      <c r="B3185" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3185" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3185" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="A3186" t="s" s="0">
+        <v>1982</v>
+      </c>
+      <c r="B3186" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3186" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3186" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="A3187" t="s" s="0">
+        <v>1985</v>
+      </c>
+      <c r="B3187" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3187" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3187" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3188" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3188" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3188" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" t="s" s="0">
+        <v>1986</v>
+      </c>
+      <c r="B3189" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3189" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3189" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" t="s" s="0">
+        <v>1987</v>
+      </c>
+      <c r="B3190" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3190" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3190" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="A3191" t="s" s="0">
+        <v>1990</v>
+      </c>
+      <c r="B3191" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3191" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3191" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3192">
+      <c r="A3192" t="s" s="0">
+        <v>1991</v>
+      </c>
+      <c r="B3192" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3192" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3192" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3193">
+      <c r="A3193" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3193" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3193" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3193" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3194">
+      <c r="A3194" t="s" s="0">
+        <v>1994</v>
+      </c>
+      <c r="B3194" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3194" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3194" t="s" s="0">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3195">
+      <c r="A3195" t="s" s="0">
+        <v>1995</v>
+      </c>
+      <c r="B3195" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3195" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3195" t="s" s="0">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3196">
+      <c r="A3196" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3196" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3196" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3196" t="s" s="0">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3197">
+      <c r="A3197" t="s" s="0">
+        <v>1998</v>
+      </c>
+      <c r="B3197" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3197" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3197" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3198">
+      <c r="A3198" t="s" s="0">
+        <v>1999</v>
+      </c>
+      <c r="B3198" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3198" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3198" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="A3199" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="B3199" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C3199" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="D3199" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="A3200" t="s" s="0">
+        <v>1305</v>
+      </c>
+      <c r="B3200" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3200" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3200" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="A3201" t="s" s="0">
+        <v>2030</v>
+      </c>
+      <c r="B3201" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3201" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3201" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3202">
+      <c r="A3202" t="s" s="0">
+        <v>2031</v>
+      </c>
+      <c r="B3202" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3202" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3202" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="A3203" t="s" s="0">
+        <v>2034</v>
+      </c>
+      <c r="B3203" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3203" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3203" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="A3204" t="s" s="0">
+        <v>2036</v>
+      </c>
+      <c r="B3204" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3204" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3204" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="A3205" t="s" s="0">
+        <v>2037</v>
+      </c>
+      <c r="B3205" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3205" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3205" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="A3206" t="s" s="0">
+        <v>2040</v>
+      </c>
+      <c r="B3206" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3206" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3206" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3207" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3207" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3207" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" t="s" s="0">
+        <v>2044</v>
+      </c>
+      <c r="B3208" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3208" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3208" t="s" s="0">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" t="s" s="0">
+        <v>2045</v>
+      </c>
+      <c r="B3209" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3209" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3209" t="s" s="0">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" t="s" s="0">
+        <v>2046</v>
+      </c>
+      <c r="B3210" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3210" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3210" t="s" s="0">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="A3211" t="s" s="0">
+        <v>2047</v>
+      </c>
+      <c r="B3211" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3211" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3211" t="s" s="0">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="A3212" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3212" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3212" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3212" t="s" s="0">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3213">
+      <c r="A3213" t="s" s="0">
+        <v>2054</v>
+      </c>
+      <c r="B3213" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3213" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3213" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3214">
+      <c r="A3214" t="s" s="0">
+        <v>2056</v>
+      </c>
+      <c r="B3214" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3214" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3214" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3215">
+      <c r="A3215" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3215" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3215" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3215" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3216">
+      <c r="A3216" t="s" s="0">
+        <v>2058</v>
+      </c>
+      <c r="B3216" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3216" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3216" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3217">
+      <c r="A3217" t="s" s="0">
+        <v>2061</v>
+      </c>
+      <c r="B3217" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3217" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3217" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3218">
+      <c r="A3218" t="s" s="0">
+        <v>2062</v>
+      </c>
+      <c r="B3218" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3218" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3218" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3219">
+      <c r="A3219" t="s" s="0">
+        <v>2063</v>
+      </c>
+      <c r="B3219" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3219" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3219" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3220">
+      <c r="A3220" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B3220" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3220" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3220" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" t="s" s="0">
+        <v>2068</v>
+      </c>
+      <c r="B3221" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3221" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3221" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" t="s" s="0">
+        <v>2070</v>
+      </c>
+      <c r="B3222" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3222" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3222" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" t="s" s="0">
+        <v>2073</v>
+      </c>
+      <c r="B3223" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3223" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3223" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" t="s" s="0">
+        <v>2075</v>
+      </c>
+      <c r="B3224" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3224" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3224" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3225" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3225" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3225" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" t="s" s="0">
+        <v>2078</v>
+      </c>
+      <c r="B3226" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3226" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3226" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" t="s" s="0">
+        <v>2079</v>
+      </c>
+      <c r="B3227" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3227" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3227" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" t="s" s="0">
+        <v>2081</v>
+      </c>
+      <c r="B3228" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3228" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3228" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" t="s" s="0">
+        <v>2083</v>
+      </c>
+      <c r="B3229" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3229" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3229" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3230" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3230" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3230" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" t="s" s="0">
+        <v>2088</v>
+      </c>
+      <c r="B3231" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3231" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3231" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" t="s" s="0">
+        <v>2089</v>
+      </c>
+      <c r="B3232" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3232" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3232" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" t="s" s="0">
+        <v>2093</v>
+      </c>
+      <c r="B3233" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3233" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3233" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3234">
+      <c r="A3234" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B3234" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3234" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3234" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" t="s" s="0">
+        <v>2099</v>
+      </c>
+      <c r="B3235" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3235" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3235" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" t="s" s="0">
+        <v>2100</v>
+      </c>
+      <c r="B3236" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3236" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3236" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3237" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3237" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3237" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" t="s" s="0">
+        <v>2105</v>
+      </c>
+      <c r="B3238" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3238" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3238" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" t="s" s="0">
+        <v>2107</v>
+      </c>
+      <c r="B3239" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3239" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3239" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" t="s" s="0">
+        <v>2109</v>
+      </c>
+      <c r="B3240" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3240" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3240" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" t="s" s="0">
+        <v>2111</v>
+      </c>
+      <c r="B3241" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3241" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3241" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3242">
+      <c r="A3242" t="s" s="0">
+        <v>2112</v>
+      </c>
+      <c r="B3242" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3242" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3242" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3243">
+      <c r="A3243" t="s" s="0">
+        <v>2114</v>
+      </c>
+      <c r="B3243" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3243" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3243" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3244">
+      <c r="A3244" t="s" s="0">
+        <v>2117</v>
+      </c>
+      <c r="B3244" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3244" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3244" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3245">
+      <c r="A3245" t="s" s="0">
+        <v>2118</v>
+      </c>
+      <c r="B3245" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3245" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3245" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3246">
+      <c r="A3246" t="s" s="0">
+        <v>2121</v>
+      </c>
+      <c r="B3246" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3246" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3246" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3247">
+      <c r="A3247" t="s" s="0">
+        <v>2231</v>
+      </c>
+      <c r="B3247" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3247" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3247" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3248">
+      <c r="A3248" t="s" s="0">
+        <v>2232</v>
+      </c>
+      <c r="B3248" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3248" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3248" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3249">
+      <c r="A3249" t="s" s="0">
+        <v>2233</v>
+      </c>
+      <c r="B3249" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C3249" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="D3249" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3250">
+      <c r="A3250" t="s" s="0">
+        <v>2234</v>
+      </c>
+      <c r="B3250" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3250" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3250" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3251">
+      <c r="A3251" t="s" s="0">
+        <v>2235</v>
+      </c>
+      <c r="B3251" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3251" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3251" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3252">
+      <c r="A3252" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3252" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="C3252" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3252" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" t="s" s="0">
+        <v>2236</v>
+      </c>
+      <c r="B3253" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3253" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3253" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" t="s" s="0">
+        <v>2237</v>
+      </c>
+      <c r="B3254" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3254" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3254" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" t="s" s="0">
+        <v>2238</v>
+      </c>
+      <c r="B3255" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3255" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3255" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" t="s" s="0">
+        <v>2239</v>
+      </c>
+      <c r="B3256" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3256" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3256" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3257" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3257" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3257" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" t="s" s="0">
+        <v>2240</v>
+      </c>
+      <c r="B3258" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3258" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3258" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" t="s" s="0">
+        <v>2241</v>
+      </c>
+      <c r="B3259" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3259" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3259" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" t="s" s="0">
+        <v>2242</v>
+      </c>
+      <c r="B3260" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3260" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3260" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" t="s" s="0">
+        <v>2243</v>
+      </c>
+      <c r="B3261" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3261" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3261" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" t="s" s="0">
+        <v>2244</v>
+      </c>
+      <c r="B3262" t="n" s="0">
+        <v>404.0</v>
+      </c>
+      <c r="C3262" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="D3262" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B3263" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3263" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3263" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" t="s" s="0">
+        <v>2245</v>
+      </c>
+      <c r="B3264" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3264" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3264" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" t="s" s="0">
+        <v>2246</v>
+      </c>
+      <c r="B3265" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3265" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3265" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" t="s" s="0">
+        <v>2247</v>
+      </c>
+      <c r="B3266" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3266" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3266" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" t="s" s="0">
+        <v>2248</v>
+      </c>
+      <c r="B3267" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3267" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3267" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="s" s="0">
+        <v>2249</v>
+      </c>
+      <c r="B3268" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3268" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3268" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3269" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3269" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3269" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" t="s" s="0">
+        <v>2250</v>
+      </c>
+      <c r="B3270" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3270" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3270" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" t="s" s="0">
+        <v>2251</v>
+      </c>
+      <c r="B3271" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3271" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3271" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3272" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3272" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3272" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" t="s" s="0">
+        <v>2252</v>
+      </c>
+      <c r="B3273" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3273" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3273" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" t="s" s="0">
+        <v>2253</v>
+      </c>
+      <c r="B3274" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3274" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3274" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" t="s" s="0">
+        <v>2254</v>
+      </c>
+      <c r="B3275" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3275" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3275" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" t="s" s="0">
+        <v>2255</v>
+      </c>
+      <c r="B3276" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C3276" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="D3276" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" t="s" s="0">
+        <v>2256</v>
+      </c>
+      <c r="B3277" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3277" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3277" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" t="s" s="0">
+        <v>2257</v>
+      </c>
+      <c r="B3278" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3278" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3278" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B3279" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3279" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3279" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" t="s" s="0">
+        <v>2258</v>
+      </c>
+      <c r="B3280" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3280" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3280" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" t="s" s="0">
+        <v>2259</v>
+      </c>
+      <c r="B3281" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3281" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3281" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" t="s" s="0">
+        <v>2260</v>
+      </c>
+      <c r="B3282" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3282" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3282" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B3283" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="C3283" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D3283" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" t="s" s="0">
+        <v>2261</v>
+      </c>
+      <c r="B3284" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3284" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3284" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" t="s" s="0">
+        <v>2262</v>
+      </c>
+      <c r="B3285" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3285" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3285" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" t="s" s="0">
+        <v>2263</v>
+      </c>
+      <c r="B3286" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3286" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3286" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" t="s" s="0">
+        <v>2264</v>
+      </c>
+      <c r="B3287" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3287" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3287" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" t="s" s="0">
+        <v>2265</v>
+      </c>
+      <c r="B3288" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C3288" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3288" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/resources/EN_HomePage.xlsx
+++ b/src/test/resources/EN_HomePage.xlsx
@@ -114,10 +114,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
+      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/EN_HomePage.xlsx
+++ b/src/test/resources/EN_HomePage.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6723" uniqueCount="2030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8217" uniqueCount="2523">
   <si>
     <t>https://www.novalnet.com/</t>
   </si>
@@ -6111,6 +6111,1485 @@
   </si>
   <si>
     <t>https://www.novalnet.com/glossary/digital-signature</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/direct-marketing</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/discussion-forum</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/distance-selling</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/dropshipping</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/e-business</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/ean</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/ean128</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/edi</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/edifact</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/editor</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/efficient-promotion</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/electroniccash</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/electronic-cheque</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/encryption</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/extranet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/fulfillment</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/gateway</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/german-multimedia-association</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/groupware</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/hbci</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/hit</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/html</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/http</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/host</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/hosting</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/hypertext</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/imap</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/ip-address</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/icon</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/information-broker</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/infotainment</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/intranet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/keyword</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/knowledge-management</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/listing</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/mail-order</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/mailing-list</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/marketplace</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/media-objects</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/merchant-server</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/metadata</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/micro-site</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/micropayment-2</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/network</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/network-provider</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/online-service</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/online-shop</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/pgp</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/php</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/page-clicks</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/ping</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/pingback</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/protocol</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/rsa</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/s-http</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/sla</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/sme</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/smtp</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/screen-design</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/scripting-language</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/search-engine</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/shockwave</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/shop-software</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/shopsystem</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/shopping-bot</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/signature</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/source-code</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/stylesheet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/tag</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/targeting</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/template</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/text-link-exchange</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/the-ticket-system</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/the-blog</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/thumbnail</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/trackback</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/tracking-url</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/trade-marketing</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/trustcenter</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/unique-content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/user-identification</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/view-time</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/viral-marketing</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/virtual-agent</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/virtual-companies</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/at-sign</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/glossary/epublishing</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/home/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/home/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/home/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/home/#v-pills-one</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/home/#v-pills-two</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/home/#v-pills-three</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/home/#v-pills-four</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/home/#method-section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/call-n-pay</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/document-management</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/end-user-support</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/implementation</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/be-safe</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/do-more</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/alliance-for-cyber-security/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/alliance-for-cyber-security/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/invoice-payouts/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/invoice-payouts/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/virtual-iban-automated-credit-assignment/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/virtual-iban-automated-credit-assignment/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/pos-mpos-terminal/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/pos-mpos-terminal/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/platforms/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/platforms/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/restricted-and-prohibited-business-categories/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/restricted-and-prohibited-business-categories/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-platform-2/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-platform-2/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/taxation-2/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/taxation-2/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/fraud-checks/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/fraud-checks/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-plugins-free-license/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-plugins-free-license/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/saas/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/saas/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/saas/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/works-for-everyone/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/works-for-everyone/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/what-is-virtual-iban/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/what-is-virtual-iban/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-processing/tokenization-credit-card-data-encrypted-and-secure/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-processing/tokenization-credit-card-data-encrypted-and-secure/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-plugins/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-plugins/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/kostenlose-payment-plugins</t>
+  </si>
+  <si>
+    <t>https://store.sap.com/dcp/en/product/display-2001012298_live_v1/novalnet-solution-for-sap-digital-payments-add-on</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/sap-commercecloud-occ-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://store.sap.com/dcp/en/product/display-2001011062_live_v1/seamless-payments-features-for-sap-commerce-cloud</t>
+  </si>
+  <si>
+    <t>https://store.sap.com/dcp/en/product/display-2001011864_live_v1/one-platform-for-360%C2%B0-payment-solutions-worldwide</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/salesforce-commerce-cloud-b2c-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://shopware.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://store.shopware.com/en/noval18225137976f/novalnet-payments-for-shopware-5.html</t>
+  </si>
+  <si>
+    <t>https://shopware6.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://store.shopware.com/en/noval29035660349f/novalnet-payments-for-shopware-6.html</t>
+  </si>
+  <si>
+    <t>https://store.shopware.com/en/noval90673618077f/novalnet-payments-for-shopware-6-cloud.html</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/intershop-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://woocommerce.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://wordpress.org/plugins/woocommerce-novalnet-gateway/</t>
+  </si>
+  <si>
+    <t>https://magento2.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://commercemarketplace.adobe.com/novalnet-module-payment.html</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/magento-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://store.sylius.com/products/sylius-payment-plugin-by-novalnet-by-novalnet-ag</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/J2Store-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/Shopify-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://addons.prestashop.com/en/payment-card-wallet/27259-novalnet-payment.html</t>
+  </si>
+  <si>
+    <t>https://jtlshop5.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/jtl5-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://jtlshop.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/jtl4-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#JTL-Wawi</t>
+  </si>
+  <si>
+    <t>https://novalnet.plentymarkets-cloud02.com/</t>
+  </si>
+  <si>
+    <t>https://marketplace.plentymarkets.com/en/novalnet_5231</t>
+  </si>
+  <si>
+    <t>https://oxid.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/oxideshop7-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/kajabi-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#BigCommerce%20Payment%20Plugin</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/sprykerb2c-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/coreshop-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/sprykerb2b-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/orocommerce-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/contao-isotope-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.lightspeedhq.de/ecommerce/store/apps/novalnet-payment-app/</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/kentico-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#WHMCS</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/drupalcivicrm-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/tickera-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Amepheas</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/ticketmaster-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Ticketmanager</t>
+  </si>
+  <si>
+    <t>https://wordpress.org/plugins/novalnet-payment-addon-memberpress/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#osConcert</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#osDate</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#B%C3%BCroWARE</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Events%20Manager</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Thirty%20Bees</t>
+  </si>
+  <si>
+    <t>https://wordpress.org/plugins/novalnet-payment-add-on-for-gravity-forms/</t>
+  </si>
+  <si>
+    <t>https://apps.odoo.com/apps/modules/16.0/payment_novalnet/</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/siquando-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#eShop</t>
+  </si>
+  <si>
+    <t>https://edd.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://wordpress.org/plugins/easy-digital-downloads-payment-gateway-by-novalnet/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#WordPress</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Joomla</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/hikashop-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#WP%20Easycart</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Contao%20Acquistoshop</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#WPMUDEV</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#WP%20e-Commerce</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#AbanteCart</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#MyOOS</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#X-Cart</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/cosmoshop-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#wpShopGermany</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#CS-Cart</t>
+  </si>
+  <si>
+    <t>https://zencart.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://www.zen-cart-pro.at/knowledgebase/novalnet-zahlungsmodul-fuer-zen-cart-1-5-7-deutsch/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Veyton</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Randshop</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Joomshopping</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Boonex</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/oscommerce-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#xt:Commerce</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/xtcommerce-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/opencart-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/modifiedecommerce-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/virtuemart-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Contao%20Webshop</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Typo3</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Spree</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#commerce:SEO</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/commercekickstart-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/drupalubercart-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>http://gambio.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/gambio-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#WAREXO</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/SilverCart-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/drupalcommerce-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://github.com/Novalnet-AG/drupalcommerce7-payment-integration-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Datev</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#Lexware</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#SAP</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/dealer-support/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/dealer-support/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/dealer-administration/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/dealer-administration/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-platform/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-platform/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-platform/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/data-centers</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/data-centers/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/data-centers/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/data-centers/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/taxation/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/taxation/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/taxation/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/pay-by-link/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/pay-by-link/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/wp-content/uploads/2024/02/Pay-by-Link.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/pay-by-link/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/call-n-pay/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/call-n-pay/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/wp-content/uploads/2024/02/CallNPay.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/call-n-pay/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/virtual-terminal/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/virtual-terminal/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/wp-content/uploads/2024/02/Virtual-Terminal.pdf</t>
+  </si>
+  <si>
+    <t>https://admin.novalnet.de/?lang=en#login</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/virtual-terminal/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/receivables-management/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/receivables-management/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/wp-content/uploads/2024/02/Receivable-Management.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/receivables-management-and-debt-collection</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/receivables-management/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/about-novalnet/awards/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/about-novalnet/awards/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/auszeichnungen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-plugins/interfaces/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-plugins/interfaces/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/schnittstellen</t>
+  </si>
+  <si>
+    <t>http://developer.novalnet.com/</t>
+  </si>
+  <si>
+    <t>https://developer.novalnet.com/onlinepayments/hostedpaymentpage</t>
+  </si>
+  <si>
+    <t>https://developer.novalnet.com/onlinepayments/api</t>
+  </si>
+  <si>
+    <t>https://developer.novalnet.com/onlinepayments/reactnative</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/products/moto-telesales/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-plugins/interfaces/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/split-payments-and-revenue-sharing/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/split-payments-and-revenue-sharing/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/split-payments-and-revenue-sharing/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://developer.novalnet.com/corecompetencies/affiliatecondition</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/analytics-reports/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/analytics-reports/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/wp-content/uploads/2024/02/Analytics-Report.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/analytics-reports/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/implementation/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/implementation/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/implementation/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/zahlungsarten</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/paymentmethod/payconiq/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/paymentmethod/american-express/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/paymentmethod/bancontact/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/paymentmethod/instalments/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/paymentmethod/przelewy24/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/paymentmethod/invoice-payment/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/apple-pay/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/apple-pay/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/apple-pay</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-us/HT208531</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-us/HT207957</t>
+  </si>
+  <si>
+    <t>https://developer.novalnet.com/onlinepayments/aboutapplepay</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/apple-pay/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/novalpay-pos-solutions/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/novalpay-pos-solutions/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/novalpay-pos-solutions/#stationary</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/novalpay-pos-solutions/#mobile</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/novalpay-pos-solutions/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/google-pay/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/google-pay/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/google-pay/#mockstore</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/pay/api/web/guides/resources/test-card-suite</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/pay/api/web/guides/setup#get-started</t>
+  </si>
+  <si>
+    <t>https://support.google.com/googlepay/answer/12429287?hl=en#zippy=%2Cpay-with-your-smartwatch%2Cpay-in-store</t>
+  </si>
+  <si>
+    <t>https://developer.novalnet.de/onlinepayments/aboutgooglepay</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/google-pay/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/qr-pay/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/qr-pay/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/qr-pay</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/qr-pay/#mockstore</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/epc-qr-pay/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/epc-qr-pay/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/girocode</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/epc-qr-pay/#mockstore</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/end-user-support/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/end-user-support/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/end-user-support/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/press-release-novalnet-sap/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/press-release-novalnet-sap/#content</t>
+  </si>
+  <si>
+    <t>https://store.sap.com/en/product/display-0000059675_live_v1/Seamless%20Payments%20&amp;%20Features%20for%20SAP%20Commerce</t>
+  </si>
+  <si>
+    <t>https://store.sap.com/en/</t>
+  </si>
+  <si>
+    <t>https://www.sap.com/copyright</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/press-release-novalnet-sap-hybris/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/press-release-novalnet-sap-hybris/#content</t>
+  </si>
+  <si>
+    <t>https://store.sap.com/dcp/en/product/display-0000059828_live_v1/One%20platform%20for%20360%C2%B0%20payment%20solutions%20worldwide</t>
+  </si>
+  <si>
+    <t>http://www.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/novalnet-ag</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/knowledge-center/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/knowledge-center/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/weitere-informationen</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/bancontact/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-processing/cash-on-pickup/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-processing/eps-transfer/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/services/implementation-maintenance/dealer-administration/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/services/dealer-support/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/what-is-virtual-iban</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/why-pay-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/membership-subscription/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/membership-subscription/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/wp-content/uploads/2024/02/Subscription-Management.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/membership-subscription/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/virtual-ibans/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/virtual-ibans/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/wp-content/uploads/2024/02/Virtual-IBAN.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/virtual-ibans/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/debt-collection/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/debt-collection/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/wp-content/uploads/2024/02/Debt-Collection.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/debt-collection/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/seamless-checkout/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/seamless-checkout/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/wp-content/uploads/2024/02/One-Click-Payments.pdf</t>
+  </si>
+  <si>
+    <t>https://developer.novalnet.com/onlinepayments/apicreditcard</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/seamless-checkout/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/sso/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/sso/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/sso/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/custom-domain/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/custom-domain/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/custom-domain/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/document-management/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/document-management/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/document-management/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/fraud-prevention/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/fraud-prevention/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/risikomanagement</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/fraud-prevention/#more-fraud-checks</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/wp-content/uploads/2024/02/Fraud-Check.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/alliance-for-cyber-security</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/fraud-prevention/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/privacy-policy/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/privacy-policy/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/datenschutz</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/cookie-policy</t>
+  </si>
+  <si>
+    <t>https://developers.facebook.com/docs/plugins/?locale=en_EN</t>
+  </si>
+  <si>
+    <t>https://de-de.facebook.com/about/privacy/</t>
+  </si>
+  <si>
+    <t>https://tools.google.com/dlpage/gaoptout</t>
+  </si>
+  <si>
+    <t>https://www.google.de/intl/de/policies/privacy/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/analytics/terms/de.html</t>
+  </si>
+  <si>
+    <t>https://www.google.com/intl/de_en/analytics/</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/+/</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/+/web/policies?hl=en</t>
+  </si>
+  <si>
+    <t>https://developer.linkedin.com/plugins</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/psettings/guest-controls</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/legal/cookie-policy</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/legal/privacy-policy</t>
+  </si>
+  <si>
+    <t>https://about.twitter.com/de/resources/buttons</t>
+  </si>
+  <si>
+    <t>https://twitter.com/privacy?lang=en</t>
+  </si>
+  <si>
+    <t>https://dg-datenschutz.de/datenschutz-dienstleistungen/externer-datenschutzbeauftragter/</t>
+  </si>
+  <si>
+    <t>https://www.wbs-law.de/it-recht/datenschutzrecht/</t>
+  </si>
+  <si>
+    <t>https://automattic.com/privacy/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-processing/credit-card/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-processing/credit-card/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/why-pay-novalnet/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/why-pay-novalnet/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/why-pay-novalnet/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-processing/instant-bank-transfer/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-processing/instant-bank-transfer/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/split-payments-revenue-share/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/split-payments-revenue-share/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/guaranteed-payments/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/guaranteed-payments/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/guaranteed-payments/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/adding-that-extra-joy-in-payment/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/adding-that-extra-joy-in-payment/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/tokenisation/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/tokenisation/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/tokenisation/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/escrow-accounts/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/escrow-accounts/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/wp-content/uploads/2024/02/Escrow-Accounts.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/escrow-accounts/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/contact/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/contact/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/kontakt</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/contact/#contact-sales</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/contact/#partner-enquiries</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/contact/#tech-support</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/contact/#complaints</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/cooperations</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/management-team/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/management-team/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/unser-team</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/about-novalnet/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/about-novalnet/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/why-novalnet/payment-institute/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/about-novalnet/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://developer.novalnet.de/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/management-team</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/imprint/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/imprint/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/impressum</t>
+  </si>
+  <si>
+    <t>https://what3words.com/bezahlt.frage.berichten</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/clients/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/clients/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/kunden</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/full-service-payment-solutions/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/full-service-payment-solutions/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/pci-asv-vulnerability-scan/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/pci-asv-vulnerability-scan/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/pci-compliance-leicht-gemacht-mit-novalnet</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/pci-asv-vulnerability-scan/#all_in_one_section</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/novalnet-podcasts/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/novalnet-podcasts/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/why-novalnet/pci-dss-certification/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/why-novalnet/pci-dss-certification/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/pci-dss-zertifizierung</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/wp-content/uploads/2024/12/novalnet-pci-2024-2025.pdf</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/sap/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/sap/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/payment-enquiry-request#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/apple-pay</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/lexware/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/lexware/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/datev/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/datev/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/ticketmanager/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/ticketmanager/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/wordpress/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/wordpress/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/joomla/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/joomla/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/amepheas/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/amepheas/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/bigcommerce-payment-plugin/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/bigcommerce-payment-plugin/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/integration/bigcommerce</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/whmcs-payment-module/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/whmcs-payment-module/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/integration/whmcs-payment-module</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/osconcert-payment-modul/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/osconcert-payment-modul/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/integration/osconcert-payment-modul</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/osdateworld-com-payment-module/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/osdateworld-com-payment-module/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/integration/osdateworld-com-payment-module</t>
+  </si>
+  <si>
+    <t>http://www.tufat.com/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/bueroware-payment-module/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/bueroware-payment-module/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/integration/bueroware-payment-module</t>
+  </si>
+  <si>
+    <t>http://www.ctech-suew.de/</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/eventsmanager/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/eventsmanager/#content</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.de/integration/events-manager-payment-module</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/eshop/#</t>
+  </si>
+  <si>
+    <t>https://www.novalnet.com/integration/eshop/#content</t>
   </si>
 </sst>
 </file>
@@ -6227,7 +7706,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2241"/>
+  <dimension ref="A1:D2739"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37607,6 +39086,6978 @@
         <v>314</v>
       </c>
     </row>
+    <row r="2242">
+      <c r="A2242" t="s" s="0">
+        <v>2030</v>
+      </c>
+      <c r="B2242" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2242" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2242" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="s" s="0">
+        <v>2031</v>
+      </c>
+      <c r="B2243" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2243" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2243" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="s" s="0">
+        <v>2032</v>
+      </c>
+      <c r="B2244" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2244" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2244" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="s" s="0">
+        <v>2033</v>
+      </c>
+      <c r="B2245" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2245" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2245" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="s" s="0">
+        <v>2034</v>
+      </c>
+      <c r="B2246" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2246" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2246" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="s" s="0">
+        <v>2035</v>
+      </c>
+      <c r="B2247" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2247" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2247" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="s" s="0">
+        <v>2036</v>
+      </c>
+      <c r="B2248" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2248" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2248" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="s" s="0">
+        <v>2037</v>
+      </c>
+      <c r="B2249" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2249" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2249" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="s" s="0">
+        <v>2038</v>
+      </c>
+      <c r="B2250" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2250" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2250" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="s" s="0">
+        <v>2039</v>
+      </c>
+      <c r="B2251" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2251" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2251" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="s" s="0">
+        <v>2040</v>
+      </c>
+      <c r="B2252" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2252" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2252" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="s" s="0">
+        <v>2041</v>
+      </c>
+      <c r="B2253" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2253" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2253" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="s" s="0">
+        <v>2042</v>
+      </c>
+      <c r="B2254" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2254" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2254" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="s" s="0">
+        <v>2043</v>
+      </c>
+      <c r="B2255" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2255" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2255" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="s" s="0">
+        <v>2044</v>
+      </c>
+      <c r="B2256" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2256" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2256" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="s" s="0">
+        <v>2045</v>
+      </c>
+      <c r="B2257" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2257" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2257" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="s" s="0">
+        <v>2046</v>
+      </c>
+      <c r="B2258" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2258" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2258" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="s" s="0">
+        <v>2047</v>
+      </c>
+      <c r="B2259" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2259" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2259" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="s" s="0">
+        <v>2048</v>
+      </c>
+      <c r="B2260" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2260" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2260" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="s" s="0">
+        <v>2049</v>
+      </c>
+      <c r="B2261" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2261" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2261" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="s" s="0">
+        <v>2050</v>
+      </c>
+      <c r="B2262" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2262" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2262" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="s" s="0">
+        <v>2051</v>
+      </c>
+      <c r="B2263" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2263" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2263" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="s" s="0">
+        <v>2052</v>
+      </c>
+      <c r="B2264" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2264" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2264" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="s" s="0">
+        <v>2053</v>
+      </c>
+      <c r="B2265" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2265" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2265" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="s" s="0">
+        <v>2054</v>
+      </c>
+      <c r="B2266" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2266" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2266" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="s" s="0">
+        <v>2055</v>
+      </c>
+      <c r="B2267" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2267" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2267" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="s" s="0">
+        <v>2056</v>
+      </c>
+      <c r="B2268" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2268" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2268" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="s" s="0">
+        <v>2057</v>
+      </c>
+      <c r="B2269" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2269" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2269" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="s" s="0">
+        <v>2058</v>
+      </c>
+      <c r="B2270" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2270" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2270" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="s" s="0">
+        <v>2059</v>
+      </c>
+      <c r="B2271" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2271" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2271" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="s" s="0">
+        <v>2060</v>
+      </c>
+      <c r="B2272" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2272" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2272" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="s" s="0">
+        <v>2061</v>
+      </c>
+      <c r="B2273" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2273" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2273" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="s" s="0">
+        <v>2062</v>
+      </c>
+      <c r="B2274" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2274" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2274" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="s" s="0">
+        <v>2063</v>
+      </c>
+      <c r="B2275" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2275" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2275" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="s" s="0">
+        <v>2064</v>
+      </c>
+      <c r="B2276" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2276" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2276" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="s" s="0">
+        <v>2065</v>
+      </c>
+      <c r="B2277" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2277" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2277" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="s" s="0">
+        <v>2066</v>
+      </c>
+      <c r="B2278" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2278" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2278" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="s" s="0">
+        <v>2067</v>
+      </c>
+      <c r="B2279" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2279" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2279" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="s" s="0">
+        <v>2068</v>
+      </c>
+      <c r="B2280" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2280" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2280" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="s" s="0">
+        <v>2069</v>
+      </c>
+      <c r="B2281" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2281" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2281" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="s" s="0">
+        <v>2070</v>
+      </c>
+      <c r="B2282" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2282" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2282" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="s" s="0">
+        <v>2071</v>
+      </c>
+      <c r="B2283" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2283" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2283" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="s" s="0">
+        <v>2072</v>
+      </c>
+      <c r="B2284" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2284" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2284" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="s" s="0">
+        <v>2073</v>
+      </c>
+      <c r="B2285" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2285" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2285" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="s" s="0">
+        <v>2074</v>
+      </c>
+      <c r="B2286" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2286" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2286" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="s" s="0">
+        <v>2075</v>
+      </c>
+      <c r="B2287" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2287" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2287" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="s" s="0">
+        <v>2076</v>
+      </c>
+      <c r="B2288" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2288" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2288" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="s" s="0">
+        <v>2077</v>
+      </c>
+      <c r="B2289" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2289" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2289" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="s" s="0">
+        <v>2078</v>
+      </c>
+      <c r="B2290" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2290" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2290" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="s" s="0">
+        <v>2079</v>
+      </c>
+      <c r="B2291" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2291" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2291" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="s" s="0">
+        <v>2080</v>
+      </c>
+      <c r="B2292" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2292" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2292" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="s" s="0">
+        <v>2081</v>
+      </c>
+      <c r="B2293" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2293" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2293" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="s" s="0">
+        <v>2082</v>
+      </c>
+      <c r="B2294" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2294" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2294" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="s" s="0">
+        <v>2083</v>
+      </c>
+      <c r="B2295" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2295" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2295" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="s" s="0">
+        <v>2084</v>
+      </c>
+      <c r="B2296" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2296" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2296" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="s" s="0">
+        <v>2085</v>
+      </c>
+      <c r="B2297" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2297" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2297" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="s" s="0">
+        <v>2086</v>
+      </c>
+      <c r="B2298" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2298" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2298" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="s" s="0">
+        <v>2087</v>
+      </c>
+      <c r="B2299" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2299" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2299" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="s" s="0">
+        <v>2088</v>
+      </c>
+      <c r="B2300" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2300" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2300" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="s" s="0">
+        <v>2089</v>
+      </c>
+      <c r="B2301" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2301" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2301" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="s" s="0">
+        <v>2090</v>
+      </c>
+      <c r="B2302" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2302" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2302" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="s" s="0">
+        <v>2091</v>
+      </c>
+      <c r="B2303" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2303" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2303" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="s" s="0">
+        <v>2092</v>
+      </c>
+      <c r="B2304" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2304" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2304" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="s" s="0">
+        <v>2093</v>
+      </c>
+      <c r="B2305" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2305" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2305" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="s" s="0">
+        <v>2094</v>
+      </c>
+      <c r="B2306" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2306" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2306" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="s" s="0">
+        <v>2095</v>
+      </c>
+      <c r="B2307" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2307" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2307" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="s" s="0">
+        <v>2096</v>
+      </c>
+      <c r="B2308" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2308" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2308" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="s" s="0">
+        <v>2097</v>
+      </c>
+      <c r="B2309" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2309" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2309" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="s" s="0">
+        <v>2098</v>
+      </c>
+      <c r="B2310" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2310" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2310" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="s" s="0">
+        <v>2099</v>
+      </c>
+      <c r="B2311" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2311" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2311" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="s" s="0">
+        <v>2100</v>
+      </c>
+      <c r="B2312" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2312" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2312" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="s" s="0">
+        <v>2101</v>
+      </c>
+      <c r="B2313" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2313" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2313" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="s" s="0">
+        <v>2102</v>
+      </c>
+      <c r="B2314" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2314" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2314" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="s" s="0">
+        <v>2103</v>
+      </c>
+      <c r="B2315" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2315" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2315" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="s" s="0">
+        <v>2104</v>
+      </c>
+      <c r="B2316" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2316" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2316" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="s" s="0">
+        <v>2105</v>
+      </c>
+      <c r="B2317" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2317" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2317" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="s" s="0">
+        <v>2106</v>
+      </c>
+      <c r="B2318" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2318" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2318" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="s" s="0">
+        <v>2107</v>
+      </c>
+      <c r="B2319" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2319" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2319" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="s" s="0">
+        <v>2108</v>
+      </c>
+      <c r="B2320" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2320" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2320" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="s" s="0">
+        <v>2109</v>
+      </c>
+      <c r="B2321" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2321" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2321" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="s" s="0">
+        <v>2110</v>
+      </c>
+      <c r="B2322" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2322" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2322" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="s" s="0">
+        <v>2111</v>
+      </c>
+      <c r="B2323" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2323" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2323" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="s" s="0">
+        <v>2112</v>
+      </c>
+      <c r="B2324" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2324" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2324" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="s" s="0">
+        <v>2113</v>
+      </c>
+      <c r="B2325" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2325" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2325" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="s" s="0">
+        <v>2114</v>
+      </c>
+      <c r="B2326" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2326" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2326" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="s" s="0">
+        <v>2115</v>
+      </c>
+      <c r="B2327" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2327" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2327" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="s" s="0">
+        <v>2116</v>
+      </c>
+      <c r="B2328" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2328" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2328" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="s" s="0">
+        <v>2117</v>
+      </c>
+      <c r="B2329" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2329" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2329" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="s" s="0">
+        <v>2118</v>
+      </c>
+      <c r="B2330" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2330" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2330" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="s" s="0">
+        <v>2119</v>
+      </c>
+      <c r="B2331" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2331" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2331" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="s" s="0">
+        <v>2120</v>
+      </c>
+      <c r="B2332" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2332" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2332" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="s" s="0">
+        <v>2121</v>
+      </c>
+      <c r="B2333" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2333" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2333" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="s" s="0">
+        <v>2122</v>
+      </c>
+      <c r="B2334" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2334" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2334" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="s" s="0">
+        <v>2123</v>
+      </c>
+      <c r="B2335" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2335" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2335" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="s" s="0">
+        <v>2124</v>
+      </c>
+      <c r="B2336" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2336" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2336" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="s" s="0">
+        <v>2125</v>
+      </c>
+      <c r="B2337" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2337" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2337" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="s" s="0">
+        <v>2126</v>
+      </c>
+      <c r="B2338" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2338" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2338" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="s" s="0">
+        <v>2127</v>
+      </c>
+      <c r="B2339" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2339" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2339" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="s" s="0">
+        <v>2128</v>
+      </c>
+      <c r="B2340" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2340" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2340" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="s" s="0">
+        <v>2129</v>
+      </c>
+      <c r="B2341" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2341" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2341" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="s" s="0">
+        <v>2130</v>
+      </c>
+      <c r="B2342" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2342" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2342" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="s" s="0">
+        <v>2131</v>
+      </c>
+      <c r="B2343" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2343" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2343" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="s" s="0">
+        <v>2132</v>
+      </c>
+      <c r="B2344" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2344" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2344" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="s" s="0">
+        <v>2133</v>
+      </c>
+      <c r="B2345" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2345" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2345" t="s" s="0">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="s" s="0">
+        <v>2134</v>
+      </c>
+      <c r="B2346" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2346" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2346" t="s" s="0">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="s" s="0">
+        <v>2135</v>
+      </c>
+      <c r="B2347" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2347" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2347" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="s" s="0">
+        <v>2136</v>
+      </c>
+      <c r="B2348" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2348" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2348" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="s" s="0">
+        <v>2137</v>
+      </c>
+      <c r="B2349" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2349" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2349" t="s" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="s" s="0">
+        <v>2138</v>
+      </c>
+      <c r="B2350" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2350" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2350" t="s" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="s" s="0">
+        <v>2139</v>
+      </c>
+      <c r="B2351" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2351" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2351" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="s" s="0">
+        <v>2140</v>
+      </c>
+      <c r="B2352" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2352" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2352" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="s" s="0">
+        <v>2141</v>
+      </c>
+      <c r="B2353" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2353" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2353" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="s" s="0">
+        <v>2142</v>
+      </c>
+      <c r="B2354" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2354" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2354" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="s" s="0">
+        <v>2143</v>
+      </c>
+      <c r="B2355" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2355" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2355" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="s" s="0">
+        <v>2144</v>
+      </c>
+      <c r="B2356" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2356" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2356" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="s" s="0">
+        <v>2145</v>
+      </c>
+      <c r="B2357" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2357" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2357" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="s" s="0">
+        <v>2146</v>
+      </c>
+      <c r="B2358" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2358" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2358" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="s" s="0">
+        <v>2147</v>
+      </c>
+      <c r="B2359" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2359" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2359" t="s" s="0">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="s" s="0">
+        <v>2148</v>
+      </c>
+      <c r="B2360" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2360" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2360" t="s" s="0">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="s" s="0">
+        <v>2149</v>
+      </c>
+      <c r="B2361" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2361" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2361" t="s" s="0">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="s" s="0">
+        <v>2150</v>
+      </c>
+      <c r="B2362" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2362" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2362" t="s" s="0">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="s" s="0">
+        <v>2151</v>
+      </c>
+      <c r="B2363" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2363" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2363" t="s" s="0">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="s" s="0">
+        <v>2152</v>
+      </c>
+      <c r="B2364" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2364" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2364" t="s" s="0">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="s" s="0">
+        <v>2153</v>
+      </c>
+      <c r="B2365" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2365" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2365" t="s" s="0">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="s" s="0">
+        <v>2154</v>
+      </c>
+      <c r="B2366" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2366" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2366" t="s" s="0">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="s" s="0">
+        <v>2155</v>
+      </c>
+      <c r="B2367" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2367" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2367" t="s" s="0">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="s" s="0">
+        <v>2156</v>
+      </c>
+      <c r="B2368" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2368" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2368" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="s" s="0">
+        <v>2157</v>
+      </c>
+      <c r="B2369" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2369" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2369" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="s" s="0">
+        <v>2158</v>
+      </c>
+      <c r="B2370" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2370" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2370" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="s" s="0">
+        <v>2159</v>
+      </c>
+      <c r="B2371" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2371" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2371" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="s" s="0">
+        <v>2160</v>
+      </c>
+      <c r="B2372" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2372" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2372" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="s" s="0">
+        <v>2161</v>
+      </c>
+      <c r="B2373" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2373" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2373" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="s" s="0">
+        <v>2162</v>
+      </c>
+      <c r="B2374" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2374" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2374" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="s" s="0">
+        <v>2163</v>
+      </c>
+      <c r="B2375" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2375" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2375" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="s" s="0">
+        <v>2164</v>
+      </c>
+      <c r="B2376" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2376" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2376" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="s" s="0">
+        <v>2165</v>
+      </c>
+      <c r="B2377" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2377" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2377" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="s" s="0">
+        <v>2166</v>
+      </c>
+      <c r="B2378" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2378" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2378" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="s" s="0">
+        <v>2167</v>
+      </c>
+      <c r="B2379" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2379" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2379" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="s" s="0">
+        <v>2168</v>
+      </c>
+      <c r="B2380" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2380" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2380" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="s" s="0">
+        <v>2169</v>
+      </c>
+      <c r="B2381" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2381" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2381" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="s" s="0">
+        <v>2170</v>
+      </c>
+      <c r="B2382" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2382" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2382" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="s" s="0">
+        <v>2171</v>
+      </c>
+      <c r="B2383" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2383" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2383" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="s" s="0">
+        <v>2172</v>
+      </c>
+      <c r="B2384" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2384" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2384" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="s" s="0">
+        <v>2173</v>
+      </c>
+      <c r="B2385" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2385" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2385" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="s" s="0">
+        <v>2174</v>
+      </c>
+      <c r="B2386" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2386" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2386" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="s" s="0">
+        <v>2175</v>
+      </c>
+      <c r="B2387" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2387" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2387" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="s" s="0">
+        <v>2176</v>
+      </c>
+      <c r="B2388" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2388" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2388" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="s" s="0">
+        <v>2177</v>
+      </c>
+      <c r="B2389" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2389" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2389" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="s" s="0">
+        <v>2178</v>
+      </c>
+      <c r="B2390" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2390" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2390" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="s" s="0">
+        <v>2179</v>
+      </c>
+      <c r="B2391" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2391" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2391" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="s" s="0">
+        <v>2180</v>
+      </c>
+      <c r="B2392" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2392" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2392" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="s" s="0">
+        <v>2181</v>
+      </c>
+      <c r="B2393" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2393" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2393" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="s" s="0">
+        <v>2182</v>
+      </c>
+      <c r="B2394" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C2394" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="D2394" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="s" s="0">
+        <v>2183</v>
+      </c>
+      <c r="B2395" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2395" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2395" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="s" s="0">
+        <v>2184</v>
+      </c>
+      <c r="B2396" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2396" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2396" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="s" s="0">
+        <v>2185</v>
+      </c>
+      <c r="B2397" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2397" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2397" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="s" s="0">
+        <v>2186</v>
+      </c>
+      <c r="B2398" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2398" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2398" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="s" s="0">
+        <v>2187</v>
+      </c>
+      <c r="B2399" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2399" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2399" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="s" s="0">
+        <v>2188</v>
+      </c>
+      <c r="B2400" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2400" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2400" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="s" s="0">
+        <v>2189</v>
+      </c>
+      <c r="B2401" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2401" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2401" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="s" s="0">
+        <v>2190</v>
+      </c>
+      <c r="B2402" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2402" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2402" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="s" s="0">
+        <v>2191</v>
+      </c>
+      <c r="B2403" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2403" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2403" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="s" s="0">
+        <v>2192</v>
+      </c>
+      <c r="B2404" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2404" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2404" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="s" s="0">
+        <v>2193</v>
+      </c>
+      <c r="B2405" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2405" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2405" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="s" s="0">
+        <v>2194</v>
+      </c>
+      <c r="B2406" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2406" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2406" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="s" s="0">
+        <v>2195</v>
+      </c>
+      <c r="B2407" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2407" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2407" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="s" s="0">
+        <v>2196</v>
+      </c>
+      <c r="B2408" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2408" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2408" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="s" s="0">
+        <v>2197</v>
+      </c>
+      <c r="B2409" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2409" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2409" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="s" s="0">
+        <v>2198</v>
+      </c>
+      <c r="B2410" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2410" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2410" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="s" s="0">
+        <v>2199</v>
+      </c>
+      <c r="B2411" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2411" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2411" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="s" s="0">
+        <v>2200</v>
+      </c>
+      <c r="B2412" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2412" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2412" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="s" s="0">
+        <v>2201</v>
+      </c>
+      <c r="B2413" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2413" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2413" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="s" s="0">
+        <v>2202</v>
+      </c>
+      <c r="B2414" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2414" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2414" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="s" s="0">
+        <v>2203</v>
+      </c>
+      <c r="B2415" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2415" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2415" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="s" s="0">
+        <v>2204</v>
+      </c>
+      <c r="B2416" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2416" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2416" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="s" s="0">
+        <v>2205</v>
+      </c>
+      <c r="B2417" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2417" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2417" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="s" s="0">
+        <v>2206</v>
+      </c>
+      <c r="B2418" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2418" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2418" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="s" s="0">
+        <v>2207</v>
+      </c>
+      <c r="B2419" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2419" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2419" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="s" s="0">
+        <v>2208</v>
+      </c>
+      <c r="B2420" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2420" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2420" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="s" s="0">
+        <v>2209</v>
+      </c>
+      <c r="B2421" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2421" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2421" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="s" s="0">
+        <v>2210</v>
+      </c>
+      <c r="B2422" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2422" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2422" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="s" s="0">
+        <v>2211</v>
+      </c>
+      <c r="B2423" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2423" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2423" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="s" s="0">
+        <v>2212</v>
+      </c>
+      <c r="B2424" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2424" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2424" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="s" s="0">
+        <v>2213</v>
+      </c>
+      <c r="B2425" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2425" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2425" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="s" s="0">
+        <v>2214</v>
+      </c>
+      <c r="B2426" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2426" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2426" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="s" s="0">
+        <v>2215</v>
+      </c>
+      <c r="B2427" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2427" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2427" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="s" s="0">
+        <v>2216</v>
+      </c>
+      <c r="B2428" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2428" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2428" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="s" s="0">
+        <v>2217</v>
+      </c>
+      <c r="B2429" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2429" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2429" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="s" s="0">
+        <v>2218</v>
+      </c>
+      <c r="B2430" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2430" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2430" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="s" s="0">
+        <v>2219</v>
+      </c>
+      <c r="B2431" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2431" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2431" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="s" s="0">
+        <v>2220</v>
+      </c>
+      <c r="B2432" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2432" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2432" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="s" s="0">
+        <v>2221</v>
+      </c>
+      <c r="B2433" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2433" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2433" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" t="s" s="0">
+        <v>2222</v>
+      </c>
+      <c r="B2434" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2434" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2434" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="s" s="0">
+        <v>2223</v>
+      </c>
+      <c r="B2435" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2435" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2435" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="s" s="0">
+        <v>2224</v>
+      </c>
+      <c r="B2436" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2436" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2436" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="s" s="0">
+        <v>2225</v>
+      </c>
+      <c r="B2437" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2437" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2437" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="s" s="0">
+        <v>2226</v>
+      </c>
+      <c r="B2438" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2438" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2438" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="s" s="0">
+        <v>2227</v>
+      </c>
+      <c r="B2439" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2439" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2439" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="s" s="0">
+        <v>2228</v>
+      </c>
+      <c r="B2440" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2440" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2440" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="s" s="0">
+        <v>2229</v>
+      </c>
+      <c r="B2441" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2441" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2441" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="s" s="0">
+        <v>2230</v>
+      </c>
+      <c r="B2442" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2442" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2442" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="s" s="0">
+        <v>2231</v>
+      </c>
+      <c r="B2443" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2443" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2443" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="s" s="0">
+        <v>2232</v>
+      </c>
+      <c r="B2444" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2444" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2444" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="s" s="0">
+        <v>2233</v>
+      </c>
+      <c r="B2445" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2445" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2445" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="s" s="0">
+        <v>2234</v>
+      </c>
+      <c r="B2446" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2446" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2446" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="s" s="0">
+        <v>2235</v>
+      </c>
+      <c r="B2447" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2447" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2447" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="s" s="0">
+        <v>2236</v>
+      </c>
+      <c r="B2448" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2448" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2448" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="s" s="0">
+        <v>2237</v>
+      </c>
+      <c r="B2449" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2449" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2449" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="s" s="0">
+        <v>2238</v>
+      </c>
+      <c r="B2450" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2450" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2450" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="s" s="0">
+        <v>2239</v>
+      </c>
+      <c r="B2451" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2451" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2451" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="s" s="0">
+        <v>2240</v>
+      </c>
+      <c r="B2452" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2452" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2452" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="s" s="0">
+        <v>2241</v>
+      </c>
+      <c r="B2453" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2453" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2453" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="s" s="0">
+        <v>2242</v>
+      </c>
+      <c r="B2454" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2454" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2454" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="s" s="0">
+        <v>2243</v>
+      </c>
+      <c r="B2455" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2455" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2455" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="s" s="0">
+        <v>2244</v>
+      </c>
+      <c r="B2456" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2456" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2456" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="s" s="0">
+        <v>2245</v>
+      </c>
+      <c r="B2457" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2457" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2457" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="s" s="0">
+        <v>2246</v>
+      </c>
+      <c r="B2458" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2458" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2458" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="s" s="0">
+        <v>2247</v>
+      </c>
+      <c r="B2459" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2459" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2459" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="s" s="0">
+        <v>2248</v>
+      </c>
+      <c r="B2460" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2460" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2460" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="s" s="0">
+        <v>2249</v>
+      </c>
+      <c r="B2461" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2461" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2461" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="s" s="0">
+        <v>2250</v>
+      </c>
+      <c r="B2462" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2462" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2462" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="s" s="0">
+        <v>2251</v>
+      </c>
+      <c r="B2463" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2463" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2463" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="s" s="0">
+        <v>2252</v>
+      </c>
+      <c r="B2464" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2464" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2464" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="s" s="0">
+        <v>2253</v>
+      </c>
+      <c r="B2465" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2465" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2465" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="s" s="0">
+        <v>2254</v>
+      </c>
+      <c r="B2466" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2466" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2466" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="s" s="0">
+        <v>2255</v>
+      </c>
+      <c r="B2467" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2467" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2467" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="s" s="0">
+        <v>2256</v>
+      </c>
+      <c r="B2468" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2468" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2468" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="s" s="0">
+        <v>2257</v>
+      </c>
+      <c r="B2469" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2469" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2469" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="s" s="0">
+        <v>2258</v>
+      </c>
+      <c r="B2470" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2470" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2470" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="s" s="0">
+        <v>2182</v>
+      </c>
+      <c r="B2471" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C2471" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="D2471" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="s" s="0">
+        <v>2259</v>
+      </c>
+      <c r="B2472" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2472" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2472" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="s" s="0">
+        <v>2260</v>
+      </c>
+      <c r="B2473" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2473" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2473" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="s" s="0">
+        <v>2261</v>
+      </c>
+      <c r="B2474" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2474" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2474" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="s" s="0">
+        <v>2262</v>
+      </c>
+      <c r="B2475" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2475" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2475" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="s" s="0">
+        <v>2263</v>
+      </c>
+      <c r="B2476" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2476" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2476" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="s" s="0">
+        <v>2264</v>
+      </c>
+      <c r="B2477" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2477" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2477" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="s" s="0">
+        <v>2265</v>
+      </c>
+      <c r="B2478" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2478" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2478" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="s" s="0">
+        <v>2266</v>
+      </c>
+      <c r="B2479" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2479" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2479" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="s" s="0">
+        <v>2267</v>
+      </c>
+      <c r="B2480" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2480" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2480" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="s" s="0">
+        <v>2268</v>
+      </c>
+      <c r="B2481" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2481" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2481" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="s" s="0">
+        <v>2269</v>
+      </c>
+      <c r="B2482" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2482" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2482" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="s" s="0">
+        <v>2270</v>
+      </c>
+      <c r="B2483" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2483" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2483" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="s" s="0">
+        <v>2271</v>
+      </c>
+      <c r="B2484" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2484" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2484" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="s" s="0">
+        <v>2272</v>
+      </c>
+      <c r="B2485" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2485" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2485" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="s" s="0">
+        <v>2273</v>
+      </c>
+      <c r="B2486" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2486" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2486" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="s" s="0">
+        <v>2274</v>
+      </c>
+      <c r="B2487" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2487" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2487" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="s" s="0">
+        <v>2275</v>
+      </c>
+      <c r="B2488" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2488" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2488" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="s" s="0">
+        <v>2276</v>
+      </c>
+      <c r="B2489" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2489" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2489" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="s" s="0">
+        <v>2277</v>
+      </c>
+      <c r="B2490" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2490" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2490" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="s" s="0">
+        <v>2278</v>
+      </c>
+      <c r="B2491" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2491" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2491" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="s" s="0">
+        <v>2279</v>
+      </c>
+      <c r="B2492" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2492" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2492" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="s" s="0">
+        <v>2280</v>
+      </c>
+      <c r="B2493" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2493" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2493" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="s" s="0">
+        <v>2281</v>
+      </c>
+      <c r="B2494" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2494" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2494" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="s" s="0">
+        <v>2282</v>
+      </c>
+      <c r="B2495" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2495" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2495" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="s" s="0">
+        <v>2283</v>
+      </c>
+      <c r="B2496" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2496" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2496" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="s" s="0">
+        <v>2284</v>
+      </c>
+      <c r="B2497" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2497" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2497" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="s" s="0">
+        <v>2285</v>
+      </c>
+      <c r="B2498" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2498" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2498" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="s" s="0">
+        <v>2286</v>
+      </c>
+      <c r="B2499" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2499" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2499" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="s" s="0">
+        <v>2287</v>
+      </c>
+      <c r="B2500" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2500" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2500" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="s" s="0">
+        <v>2288</v>
+      </c>
+      <c r="B2501" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2501" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2501" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="s" s="0">
+        <v>2289</v>
+      </c>
+      <c r="B2502" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2502" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2502" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="s" s="0">
+        <v>2290</v>
+      </c>
+      <c r="B2503" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2503" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2503" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="B2504" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2504" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2504" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="s" s="0">
+        <v>2292</v>
+      </c>
+      <c r="B2505" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2505" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2505" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="s" s="0">
+        <v>2293</v>
+      </c>
+      <c r="B2506" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2506" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2506" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="s" s="0">
+        <v>2294</v>
+      </c>
+      <c r="B2507" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2507" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2507" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="s" s="0">
+        <v>2295</v>
+      </c>
+      <c r="B2508" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2508" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2508" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="s" s="0">
+        <v>2296</v>
+      </c>
+      <c r="B2509" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2509" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2509" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="s" s="0">
+        <v>2297</v>
+      </c>
+      <c r="B2510" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2510" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2510" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="s" s="0">
+        <v>2298</v>
+      </c>
+      <c r="B2511" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2511" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2511" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="s" s="0">
+        <v>2299</v>
+      </c>
+      <c r="B2512" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2512" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2512" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="s" s="0">
+        <v>2300</v>
+      </c>
+      <c r="B2513" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2513" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2513" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="s" s="0">
+        <v>2301</v>
+      </c>
+      <c r="B2514" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2514" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2514" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="s" s="0">
+        <v>2302</v>
+      </c>
+      <c r="B2515" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2515" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2515" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="s" s="0">
+        <v>2303</v>
+      </c>
+      <c r="B2516" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2516" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2516" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="s" s="0">
+        <v>2304</v>
+      </c>
+      <c r="B2517" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2517" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2517" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="s" s="0">
+        <v>2305</v>
+      </c>
+      <c r="B2518" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2518" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2518" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="s" s="0">
+        <v>2306</v>
+      </c>
+      <c r="B2519" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2519" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2519" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="s" s="0">
+        <v>2307</v>
+      </c>
+      <c r="B2520" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2520" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2520" t="s" s="0">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="s" s="0">
+        <v>2308</v>
+      </c>
+      <c r="B2521" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2521" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2521" t="s" s="0">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="s" s="0">
+        <v>2309</v>
+      </c>
+      <c r="B2522" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2522" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2522" t="s" s="0">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="s" s="0">
+        <v>2310</v>
+      </c>
+      <c r="B2523" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2523" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2523" t="s" s="0">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="s" s="0">
+        <v>2311</v>
+      </c>
+      <c r="B2524" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2524" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2524" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="s" s="0">
+        <v>2312</v>
+      </c>
+      <c r="B2525" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2525" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2525" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="s" s="0">
+        <v>2313</v>
+      </c>
+      <c r="B2526" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2526" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2526" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="s" s="0">
+        <v>2314</v>
+      </c>
+      <c r="B2527" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2527" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2527" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="s" s="0">
+        <v>2315</v>
+      </c>
+      <c r="B2528" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2528" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2528" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="s" s="0">
+        <v>2316</v>
+      </c>
+      <c r="B2529" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2529" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2529" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="s" s="0">
+        <v>2317</v>
+      </c>
+      <c r="B2530" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2530" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2530" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="s" s="0">
+        <v>2318</v>
+      </c>
+      <c r="B2531" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2531" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2531" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="s" s="0">
+        <v>2319</v>
+      </c>
+      <c r="B2532" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2532" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2532" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="s" s="0">
+        <v>2320</v>
+      </c>
+      <c r="B2533" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2533" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2533" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="s" s="0">
+        <v>2321</v>
+      </c>
+      <c r="B2534" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2534" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2534" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="s" s="0">
+        <v>2322</v>
+      </c>
+      <c r="B2535" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2535" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2535" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="s" s="0">
+        <v>2323</v>
+      </c>
+      <c r="B2536" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2536" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2536" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="s" s="0">
+        <v>2324</v>
+      </c>
+      <c r="B2537" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2537" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2537" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="s" s="0">
+        <v>2325</v>
+      </c>
+      <c r="B2538" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2538" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2538" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="s" s="0">
+        <v>2326</v>
+      </c>
+      <c r="B2539" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2539" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2539" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="s" s="0">
+        <v>2327</v>
+      </c>
+      <c r="B2540" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2540" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2540" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="s" s="0">
+        <v>2328</v>
+      </c>
+      <c r="B2541" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2541" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2541" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="s" s="0">
+        <v>2329</v>
+      </c>
+      <c r="B2542" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2542" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2542" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="s" s="0">
+        <v>2330</v>
+      </c>
+      <c r="B2543" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2543" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2543" t="s" s="0">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="s" s="0">
+        <v>2331</v>
+      </c>
+      <c r="B2544" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2544" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2544" t="s" s="0">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="s" s="0">
+        <v>2332</v>
+      </c>
+      <c r="B2545" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2545" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2545" t="s" s="0">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="s" s="0">
+        <v>2333</v>
+      </c>
+      <c r="B2546" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2546" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2546" t="s" s="0">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="s" s="0">
+        <v>2334</v>
+      </c>
+      <c r="B2547" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2547" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2547" t="s" s="0">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="s" s="0">
+        <v>2335</v>
+      </c>
+      <c r="B2548" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2548" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2548" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="s" s="0">
+        <v>2336</v>
+      </c>
+      <c r="B2549" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2549" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2549" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="s" s="0">
+        <v>2337</v>
+      </c>
+      <c r="B2550" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2550" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2550" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="s" s="0">
+        <v>2338</v>
+      </c>
+      <c r="B2551" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2551" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2551" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="s" s="0">
+        <v>2339</v>
+      </c>
+      <c r="B2552" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2552" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2552" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="s" s="0">
+        <v>2340</v>
+      </c>
+      <c r="B2553" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2553" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2553" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="s" s="0">
+        <v>2341</v>
+      </c>
+      <c r="B2554" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2554" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2554" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="s" s="0">
+        <v>2342</v>
+      </c>
+      <c r="B2555" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2555" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2555" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="s" s="0">
+        <v>2343</v>
+      </c>
+      <c r="B2556" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2556" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2556" t="s" s="0">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="s" s="0">
+        <v>2344</v>
+      </c>
+      <c r="B2557" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2557" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2557" t="s" s="0">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="s" s="0">
+        <v>2345</v>
+      </c>
+      <c r="B2558" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2558" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2558" t="s" s="0">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="s" s="0">
+        <v>2346</v>
+      </c>
+      <c r="B2559" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2559" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2559" t="s" s="0">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="s" s="0">
+        <v>2347</v>
+      </c>
+      <c r="B2560" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2560" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2560" t="s" s="0">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="s" s="0">
+        <v>2348</v>
+      </c>
+      <c r="B2561" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2561" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2561" t="s" s="0">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="s" s="0">
+        <v>2349</v>
+      </c>
+      <c r="B2562" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2562" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2562" t="s" s="0">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="s" s="0">
+        <v>2350</v>
+      </c>
+      <c r="B2563" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2563" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2563" t="s" s="0">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="s" s="0">
+        <v>2351</v>
+      </c>
+      <c r="B2564" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2564" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2564" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="s" s="0">
+        <v>2352</v>
+      </c>
+      <c r="B2565" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2565" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2565" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="s" s="0">
+        <v>2353</v>
+      </c>
+      <c r="B2566" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2566" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2566" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="s" s="0">
+        <v>2354</v>
+      </c>
+      <c r="B2567" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2567" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2567" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" t="s" s="0">
+        <v>2355</v>
+      </c>
+      <c r="B2568" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2568" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2568" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="s" s="0">
+        <v>2356</v>
+      </c>
+      <c r="B2569" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2569" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2569" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="s" s="0">
+        <v>2357</v>
+      </c>
+      <c r="B2570" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C2570" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="D2570" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" t="s" s="0">
+        <v>2357</v>
+      </c>
+      <c r="B2571" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C2571" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="D2571" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" t="s" s="0">
+        <v>2358</v>
+      </c>
+      <c r="B2572" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C2572" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="D2572" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="s" s="0">
+        <v>2359</v>
+      </c>
+      <c r="B2573" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2573" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2573" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="s" s="0">
+        <v>2360</v>
+      </c>
+      <c r="B2574" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2574" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2574" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="s" s="0">
+        <v>2361</v>
+      </c>
+      <c r="B2575" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2575" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2575" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="s" s="0">
+        <v>2357</v>
+      </c>
+      <c r="B2576" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C2576" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="D2576" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" t="s" s="0">
+        <v>2357</v>
+      </c>
+      <c r="B2577" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C2577" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="D2577" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" t="s" s="0">
+        <v>2358</v>
+      </c>
+      <c r="B2578" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="C2578" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="D2578" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" t="s" s="0">
+        <v>2362</v>
+      </c>
+      <c r="B2579" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2579" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2579" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" t="s" s="0">
+        <v>2363</v>
+      </c>
+      <c r="B2580" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2580" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2580" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="s" s="0">
+        <v>2364</v>
+      </c>
+      <c r="B2581" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2581" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2581" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="s" s="0">
+        <v>2365</v>
+      </c>
+      <c r="B2582" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2582" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2582" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" t="s" s="0">
+        <v>2366</v>
+      </c>
+      <c r="B2583" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2583" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2583" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" t="s" s="0">
+        <v>2367</v>
+      </c>
+      <c r="B2584" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2584" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2584" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" t="s" s="0">
+        <v>2368</v>
+      </c>
+      <c r="B2585" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2585" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2585" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" t="s" s="0">
+        <v>2369</v>
+      </c>
+      <c r="B2586" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2586" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2586" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" t="s" s="0">
+        <v>2370</v>
+      </c>
+      <c r="B2587" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2587" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2587" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" t="s" s="0">
+        <v>2371</v>
+      </c>
+      <c r="B2588" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2588" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2588" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" t="s" s="0">
+        <v>2372</v>
+      </c>
+      <c r="B2589" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2589" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2589" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" t="s" s="0">
+        <v>2373</v>
+      </c>
+      <c r="B2590" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2590" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2590" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" t="s" s="0">
+        <v>2374</v>
+      </c>
+      <c r="B2591" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2591" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2591" t="s" s="0">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" t="s" s="0">
+        <v>2375</v>
+      </c>
+      <c r="B2592" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2592" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2592" t="s" s="0">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" t="s" s="0">
+        <v>2376</v>
+      </c>
+      <c r="B2593" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2593" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2593" t="s" s="0">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" t="s" s="0">
+        <v>2377</v>
+      </c>
+      <c r="B2594" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2594" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2594" t="s" s="0">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" t="s" s="0">
+        <v>2378</v>
+      </c>
+      <c r="B2595" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2595" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2595" t="s" s="0">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" t="s" s="0">
+        <v>2379</v>
+      </c>
+      <c r="B2596" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2596" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2596" t="s" s="0">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" t="s" s="0">
+        <v>2380</v>
+      </c>
+      <c r="B2597" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2597" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2597" t="s" s="0">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" t="s" s="0">
+        <v>2381</v>
+      </c>
+      <c r="B2598" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2598" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2598" t="s" s="0">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="s" s="0">
+        <v>2382</v>
+      </c>
+      <c r="B2599" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2599" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2599" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" t="s" s="0">
+        <v>2383</v>
+      </c>
+      <c r="B2600" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2600" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2600" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="s" s="0">
+        <v>2384</v>
+      </c>
+      <c r="B2601" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2601" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2601" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" t="s" s="0">
+        <v>2385</v>
+      </c>
+      <c r="B2602" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2602" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2602" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" t="s" s="0">
+        <v>2386</v>
+      </c>
+      <c r="B2603" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2603" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2603" t="s" s="0">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="s" s="0">
+        <v>2387</v>
+      </c>
+      <c r="B2604" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2604" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2604" t="s" s="0">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="s" s="0">
+        <v>2388</v>
+      </c>
+      <c r="B2605" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2605" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2605" t="s" s="0">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" t="s" s="0">
+        <v>2389</v>
+      </c>
+      <c r="B2606" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2606" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2606" t="s" s="0">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="s" s="0">
+        <v>2390</v>
+      </c>
+      <c r="B2607" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2607" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2607" t="s" s="0">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="s" s="0">
+        <v>2391</v>
+      </c>
+      <c r="B2608" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2608" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2608" t="s" s="0">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="s" s="0">
+        <v>2392</v>
+      </c>
+      <c r="B2609" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2609" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2609" t="s" s="0">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="s" s="0">
+        <v>2393</v>
+      </c>
+      <c r="B2610" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2610" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2610" t="s" s="0">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="s" s="0">
+        <v>2394</v>
+      </c>
+      <c r="B2611" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2611" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2611" t="s" s="0">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="s" s="0">
+        <v>2395</v>
+      </c>
+      <c r="B2612" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2612" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2612" t="s" s="0">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="s" s="0">
+        <v>2396</v>
+      </c>
+      <c r="B2613" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2613" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2613" t="s" s="0">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="s" s="0">
+        <v>2397</v>
+      </c>
+      <c r="B2614" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2614" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2614" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="s" s="0">
+        <v>2398</v>
+      </c>
+      <c r="B2615" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2615" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2615" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="s" s="0">
+        <v>2399</v>
+      </c>
+      <c r="B2616" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2616" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2616" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="s" s="0">
+        <v>2400</v>
+      </c>
+      <c r="B2617" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2617" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2617" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="s" s="0">
+        <v>2401</v>
+      </c>
+      <c r="B2618" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2618" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2618" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="s" s="0">
+        <v>2402</v>
+      </c>
+      <c r="B2619" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2619" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2619" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="s" s="0">
+        <v>2403</v>
+      </c>
+      <c r="B2620" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2620" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2620" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="s" s="0">
+        <v>2404</v>
+      </c>
+      <c r="B2621" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2621" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2621" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="s" s="0">
+        <v>2405</v>
+      </c>
+      <c r="B2622" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2622" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2622" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="s" s="0">
+        <v>2406</v>
+      </c>
+      <c r="B2623" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2623" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2623" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="s" s="0">
+        <v>2407</v>
+      </c>
+      <c r="B2624" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2624" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2624" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="s" s="0">
+        <v>2408</v>
+      </c>
+      <c r="B2625" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2625" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2625" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="s" s="0">
+        <v>2409</v>
+      </c>
+      <c r="B2626" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2626" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2626" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="s" s="0">
+        <v>2410</v>
+      </c>
+      <c r="B2627" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2627" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2627" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="s" s="0">
+        <v>2411</v>
+      </c>
+      <c r="B2628" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2628" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2628" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="s" s="0">
+        <v>2412</v>
+      </c>
+      <c r="B2629" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2629" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2629" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" t="s" s="0">
+        <v>2413</v>
+      </c>
+      <c r="B2630" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2630" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2630" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="s" s="0">
+        <v>2414</v>
+      </c>
+      <c r="B2631" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2631" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2631" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="s" s="0">
+        <v>2415</v>
+      </c>
+      <c r="B2632" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2632" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2632" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="s" s="0">
+        <v>2416</v>
+      </c>
+      <c r="B2633" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2633" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2633" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="s" s="0">
+        <v>2417</v>
+      </c>
+      <c r="B2634" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2634" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2634" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="s" s="0">
+        <v>2418</v>
+      </c>
+      <c r="B2635" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2635" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2635" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="s" s="0">
+        <v>2419</v>
+      </c>
+      <c r="B2636" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2636" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2636" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="s" s="0">
+        <v>2420</v>
+      </c>
+      <c r="B2637" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2637" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2637" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="s" s="0">
+        <v>2421</v>
+      </c>
+      <c r="B2638" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2638" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2638" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" t="s" s="0">
+        <v>2422</v>
+      </c>
+      <c r="B2639" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2639" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2639" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" t="s" s="0">
+        <v>2423</v>
+      </c>
+      <c r="B2640" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2640" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2640" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" t="s" s="0">
+        <v>2424</v>
+      </c>
+      <c r="B2641" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2641" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2641" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" t="s" s="0">
+        <v>2425</v>
+      </c>
+      <c r="B2642" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C2642" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="D2642" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" t="s" s="0">
+        <v>2426</v>
+      </c>
+      <c r="B2643" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2643" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2643" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" t="s" s="0">
+        <v>2427</v>
+      </c>
+      <c r="B2644" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2644" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2644" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="s" s="0">
+        <v>2428</v>
+      </c>
+      <c r="B2645" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2645" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2645" t="s" s="0">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="s" s="0">
+        <v>2429</v>
+      </c>
+      <c r="B2646" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2646" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2646" t="s" s="0">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" t="s" s="0">
+        <v>2430</v>
+      </c>
+      <c r="B2647" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2647" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2647" t="s" s="0">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" t="s" s="0">
+        <v>2431</v>
+      </c>
+      <c r="B2648" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2648" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2648" t="s" s="0">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="s" s="0">
+        <v>2432</v>
+      </c>
+      <c r="B2649" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2649" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2649" t="s" s="0">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="s" s="0">
+        <v>2433</v>
+      </c>
+      <c r="B2650" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2650" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2650" t="s" s="0">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" t="s" s="0">
+        <v>2434</v>
+      </c>
+      <c r="B2651" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2651" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2651" t="s" s="0">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" t="s" s="0">
+        <v>2435</v>
+      </c>
+      <c r="B2652" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2652" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2652" t="s" s="0">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" t="s" s="0">
+        <v>2436</v>
+      </c>
+      <c r="B2653" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2653" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2653" t="s" s="0">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="s" s="0">
+        <v>2437</v>
+      </c>
+      <c r="B2654" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2654" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2654" t="s" s="0">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="s" s="0">
+        <v>2438</v>
+      </c>
+      <c r="B2655" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2655" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2655" t="s" s="0">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" t="s" s="0">
+        <v>2439</v>
+      </c>
+      <c r="B2656" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2656" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2656" t="s" s="0">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" t="s" s="0">
+        <v>2440</v>
+      </c>
+      <c r="B2657" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2657" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2657" t="s" s="0">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" t="s" s="0">
+        <v>2441</v>
+      </c>
+      <c r="B2658" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2658" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2658" t="s" s="0">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="s" s="0">
+        <v>2442</v>
+      </c>
+      <c r="B2659" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2659" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2659" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="s" s="0">
+        <v>2443</v>
+      </c>
+      <c r="B2660" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2660" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2660" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="s" s="0">
+        <v>2444</v>
+      </c>
+      <c r="B2661" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2661" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2661" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="s" s="0">
+        <v>2445</v>
+      </c>
+      <c r="B2662" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2662" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2662" t="s" s="0">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="s" s="0">
+        <v>2446</v>
+      </c>
+      <c r="B2663" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2663" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2663" t="s" s="0">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="s" s="0">
+        <v>2447</v>
+      </c>
+      <c r="B2664" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2664" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2664" t="s" s="0">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="s" s="0">
+        <v>2448</v>
+      </c>
+      <c r="B2665" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2665" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2665" t="s" s="0">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="s" s="0">
+        <v>2449</v>
+      </c>
+      <c r="B2666" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2666" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2666" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="s" s="0">
+        <v>2450</v>
+      </c>
+      <c r="B2667" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2667" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2667" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="s" s="0">
+        <v>2451</v>
+      </c>
+      <c r="B2668" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2668" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2668" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="s" s="0">
+        <v>2452</v>
+      </c>
+      <c r="B2669" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2669" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2669" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="s" s="0">
+        <v>2453</v>
+      </c>
+      <c r="B2670" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2670" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2670" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="s" s="0">
+        <v>2454</v>
+      </c>
+      <c r="B2671" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2671" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2671" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="s" s="0">
+        <v>2455</v>
+      </c>
+      <c r="B2672" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2672" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2672" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="s" s="0">
+        <v>2456</v>
+      </c>
+      <c r="B2673" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2673" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2673" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="s" s="0">
+        <v>2457</v>
+      </c>
+      <c r="B2674" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2674" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2674" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="s" s="0">
+        <v>2458</v>
+      </c>
+      <c r="B2675" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2675" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2675" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="s" s="0">
+        <v>2459</v>
+      </c>
+      <c r="B2676" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2676" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2676" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="s" s="0">
+        <v>2460</v>
+      </c>
+      <c r="B2677" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2677" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2677" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="s" s="0">
+        <v>2461</v>
+      </c>
+      <c r="B2678" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2678" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2678" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="s" s="0">
+        <v>2462</v>
+      </c>
+      <c r="B2679" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2679" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2679" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="s" s="0">
+        <v>2463</v>
+      </c>
+      <c r="B2680" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2680" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2680" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="s" s="0">
+        <v>2464</v>
+      </c>
+      <c r="B2681" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2681" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2681" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" t="s" s="0">
+        <v>2465</v>
+      </c>
+      <c r="B2682" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2682" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2682" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="s" s="0">
+        <v>2466</v>
+      </c>
+      <c r="B2683" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2683" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2683" t="s" s="0">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="s" s="0">
+        <v>2467</v>
+      </c>
+      <c r="B2684" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2684" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2684" t="s" s="0">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="s" s="0">
+        <v>2468</v>
+      </c>
+      <c r="B2685" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2685" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2685" t="s" s="0">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" t="s" s="0">
+        <v>2469</v>
+      </c>
+      <c r="B2686" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2686" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2686" t="s" s="0">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="s" s="0">
+        <v>2470</v>
+      </c>
+      <c r="B2687" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2687" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2687" t="s" s="0">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="s" s="0">
+        <v>2471</v>
+      </c>
+      <c r="B2688" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2688" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2688" t="s" s="0">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="s" s="0">
+        <v>2472</v>
+      </c>
+      <c r="B2689" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2689" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2689" t="s" s="0">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" t="s" s="0">
+        <v>2473</v>
+      </c>
+      <c r="B2690" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2690" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2690" t="s" s="0">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" t="s" s="0">
+        <v>2474</v>
+      </c>
+      <c r="B2691" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2691" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2691" t="s" s="0">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" t="s" s="0">
+        <v>2475</v>
+      </c>
+      <c r="B2692" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2692" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2692" t="s" s="0">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" t="s" s="0">
+        <v>2476</v>
+      </c>
+      <c r="B2693" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2693" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2693" t="s" s="0">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" t="s" s="0">
+        <v>2477</v>
+      </c>
+      <c r="B2694" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2694" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2694" t="s" s="0">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" t="s" s="0">
+        <v>2478</v>
+      </c>
+      <c r="B2695" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2695" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2695" t="s" s="0">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" t="s" s="0">
+        <v>2479</v>
+      </c>
+      <c r="B2696" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2696" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2696" t="s" s="0">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" t="s" s="0">
+        <v>2480</v>
+      </c>
+      <c r="B2697" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2697" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2697" t="s" s="0">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" t="s" s="0">
+        <v>2481</v>
+      </c>
+      <c r="B2698" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2698" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2698" t="s" s="0">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" t="s" s="0">
+        <v>2482</v>
+      </c>
+      <c r="B2699" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2699" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2699" t="s" s="0">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" t="s" s="0">
+        <v>2483</v>
+      </c>
+      <c r="B2700" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2700" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2700" t="s" s="0">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" t="s" s="0">
+        <v>2484</v>
+      </c>
+      <c r="B2701" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2701" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2701" t="s" s="0">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" t="s" s="0">
+        <v>2485</v>
+      </c>
+      <c r="B2702" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2702" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2702" t="s" s="0">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="s" s="0">
+        <v>2486</v>
+      </c>
+      <c r="B2703" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2703" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2703" t="s" s="0">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" t="s" s="0">
+        <v>2487</v>
+      </c>
+      <c r="B2704" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2704" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2704" t="s" s="0">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" t="s" s="0">
+        <v>2488</v>
+      </c>
+      <c r="B2705" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2705" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2705" t="s" s="0">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" t="s" s="0">
+        <v>2489</v>
+      </c>
+      <c r="B2706" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2706" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2706" t="s" s="0">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" t="s" s="0">
+        <v>2490</v>
+      </c>
+      <c r="B2707" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2707" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2707" t="s" s="0">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" t="s" s="0">
+        <v>2491</v>
+      </c>
+      <c r="B2708" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2708" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2708" t="s" s="0">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" t="s" s="0">
+        <v>2492</v>
+      </c>
+      <c r="B2709" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2709" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2709" t="s" s="0">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" t="s" s="0">
+        <v>2493</v>
+      </c>
+      <c r="B2710" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2710" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2710" t="s" s="0">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="s" s="0">
+        <v>2494</v>
+      </c>
+      <c r="B2711" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2711" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2711" t="s" s="0">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="s" s="0">
+        <v>2495</v>
+      </c>
+      <c r="B2712" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2712" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2712" t="s" s="0">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="s" s="0">
+        <v>2496</v>
+      </c>
+      <c r="B2713" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2713" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2713" t="s" s="0">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="s" s="0">
+        <v>2497</v>
+      </c>
+      <c r="B2714" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2714" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2714" t="s" s="0">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="s" s="0">
+        <v>2498</v>
+      </c>
+      <c r="B2715" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2715" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2715" t="s" s="0">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="s" s="0">
+        <v>2499</v>
+      </c>
+      <c r="B2716" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2716" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2716" t="s" s="0">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="s" s="0">
+        <v>2500</v>
+      </c>
+      <c r="B2717" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2717" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2717" t="s" s="0">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="s" s="0">
+        <v>2501</v>
+      </c>
+      <c r="B2718" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2718" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2718" t="s" s="0">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="s" s="0">
+        <v>2502</v>
+      </c>
+      <c r="B2719" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2719" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2719" t="s" s="0">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="s" s="0">
+        <v>2503</v>
+      </c>
+      <c r="B2720" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2720" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2720" t="s" s="0">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="s" s="0">
+        <v>2504</v>
+      </c>
+      <c r="B2721" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2721" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2721" t="s" s="0">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" t="s" s="0">
+        <v>2505</v>
+      </c>
+      <c r="B2722" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2722" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2722" t="s" s="0">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" t="s" s="0">
+        <v>2506</v>
+      </c>
+      <c r="B2723" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2723" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2723" t="s" s="0">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" t="s" s="0">
+        <v>2507</v>
+      </c>
+      <c r="B2724" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2724" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2724" t="s" s="0">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="s" s="0">
+        <v>2508</v>
+      </c>
+      <c r="B2725" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2725" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2725" t="s" s="0">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="s" s="0">
+        <v>2509</v>
+      </c>
+      <c r="B2726" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2726" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2726" t="s" s="0">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="s" s="0">
+        <v>2510</v>
+      </c>
+      <c r="B2727" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2727" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2727" t="s" s="0">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="s" s="0">
+        <v>2511</v>
+      </c>
+      <c r="B2728" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2728" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2728" t="s" s="0">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="s" s="0">
+        <v>2512</v>
+      </c>
+      <c r="B2729" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2729" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2729" t="s" s="0">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" t="s" s="0">
+        <v>2513</v>
+      </c>
+      <c r="B2730" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C2730" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="D2730" t="s" s="0">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="s" s="0">
+        <v>2514</v>
+      </c>
+      <c r="B2731" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2731" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2731" t="s" s="0">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="s" s="0">
+        <v>2515</v>
+      </c>
+      <c r="B2732" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2732" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2732" t="s" s="0">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="s" s="0">
+        <v>2516</v>
+      </c>
+      <c r="B2733" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2733" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2733" t="s" s="0">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="s" s="0">
+        <v>2517</v>
+      </c>
+      <c r="B2734" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2734" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2734" t="s" s="0">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="s" s="0">
+        <v>2518</v>
+      </c>
+      <c r="B2735" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2735" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2735" t="s" s="0">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="s" s="0">
+        <v>2519</v>
+      </c>
+      <c r="B2736" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2736" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2736" t="s" s="0">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="s" s="0">
+        <v>2520</v>
+      </c>
+      <c r="B2737" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2737" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2737" t="s" s="0">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="s" s="0">
+        <v>2521</v>
+      </c>
+      <c r="B2738" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2738" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2738" t="s" s="0">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="s" s="0">
+        <v>2522</v>
+      </c>
+      <c r="B2739" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C2739" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2739" t="s" s="0">
+        <v>399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/resources/EN_HomePage.xlsx
+++ b/src/test/resources/EN_HomePage.xlsx
@@ -114,10 +114,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
+      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/EN_HomePage.xlsx
+++ b/src/test/resources/EN_HomePage.xlsx
@@ -114,10 +114,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/EN_HomePage.xlsx
+++ b/src/test/resources/EN_HomePage.xlsx
@@ -114,10 +114,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/EN_HomePage.xlsx
+++ b/src/test/resources/EN_HomePage.xlsx
@@ -114,10 +114,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
+      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
